--- a/flask/static/пример.xlsx
+++ b/flask/static/пример.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Серега\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F341F-C2A6-4C02-968E-797452A4E919}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс_МО" sheetId="44" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -148,6 +149,9 @@
     <t>Общее число обучающихся, чел.</t>
   </si>
   <si>
+    <t>Иностранный язык</t>
+  </si>
+  <si>
     <t xml:space="preserve">Никитина Е.С.            </t>
   </si>
   <si>
@@ -160,27 +164,21 @@
     <t>Акимов М.П.</t>
   </si>
   <si>
+    <t xml:space="preserve"> Введение в сквозные цифровые технологии</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
     <t>**</t>
   </si>
   <si>
-    <t>Аналитическая геометрия</t>
-  </si>
-  <si>
     <t>СРС</t>
   </si>
   <si>
     <t>ауд</t>
   </si>
   <si>
-    <t xml:space="preserve">Иностранный язык  </t>
-  </si>
-  <si>
-    <t>Р   А   С   П   И   С   А   Н   И   Е       З    А    Н    Я    Т    И    Й       И М И           на II полугодие    2022-2023 уч.года</t>
-  </si>
-  <si>
     <t>Б-М-22</t>
   </si>
   <si>
@@ -271,6 +269,9 @@
     <t>до</t>
   </si>
   <si>
+    <t xml:space="preserve"> Введение в сквозные цифровые технологии*</t>
+  </si>
+  <si>
     <t>четверг</t>
   </si>
   <si>
@@ -280,16 +281,22 @@
     <t>1 курс</t>
   </si>
   <si>
-    <t xml:space="preserve"> Введение в сквозные цифровые технологии *</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Введение в сквозные цифровые технологии **</t>
+    <t>Аналитическая геометрия**</t>
+  </si>
+  <si>
+    <t>Р   А   С   П   И   С   А   Н   И   Е       З    А    Н    Я    Т    И    Й       И М И           на 2 полугодие    2022-2023 уч.года</t>
+  </si>
+  <si>
+    <t>Акимов Ф.Р.</t>
+  </si>
+  <si>
+    <t>Алексеев Н.К.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1030,7 +1037,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1273,9 +1280,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1612,12 +1616,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1654,11 +1652,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="3"/>
-    <cellStyle name="Обычный 3 2" xfId="4"/>
-    <cellStyle name="Обычный 4" xfId="5"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1749,6 +1747,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1784,6 +1799,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1959,1584 +1991,1622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="41" zoomScaleNormal="50" zoomScaleSheetLayoutView="41" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="192" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="192" customWidth="1"/>
-    <col min="9" max="10" width="10.6640625" style="192" customWidth="1"/>
-    <col min="11" max="11" width="45.6640625" style="192" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="192" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="192" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="122" customWidth="1"/>
-    <col min="15" max="15" width="45.6640625" style="76" customWidth="1"/>
-    <col min="16" max="16" width="30.6640625" style="76" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="76" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="193" customWidth="1"/>
-    <col min="19" max="19" width="45.6640625" style="76" customWidth="1"/>
-    <col min="20" max="20" width="30.6640625" style="76" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" style="76" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="177" customWidth="1"/>
-    <col min="23" max="23" width="42.88671875" style="19" customWidth="1"/>
-    <col min="24" max="24" width="30.6640625" style="19" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="19" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" style="159" customWidth="1"/>
-    <col min="27" max="27" width="5.44140625" style="82" customWidth="1"/>
-    <col min="28" max="28" width="35.33203125" style="1" customWidth="1"/>
-    <col min="29" max="256" width="8.88671875" style="4"/>
-    <col min="257" max="257" width="4.44140625" style="4" customWidth="1"/>
-    <col min="258" max="258" width="21.33203125" style="4" customWidth="1"/>
-    <col min="259" max="259" width="45.6640625" style="4" customWidth="1"/>
-    <col min="260" max="260" width="30.6640625" style="4" customWidth="1"/>
-    <col min="261" max="262" width="10.6640625" style="4" customWidth="1"/>
-    <col min="263" max="263" width="45.6640625" style="4" customWidth="1"/>
-    <col min="264" max="264" width="30.6640625" style="4" customWidth="1"/>
-    <col min="265" max="266" width="10.6640625" style="4" customWidth="1"/>
-    <col min="267" max="267" width="45.6640625" style="4" customWidth="1"/>
-    <col min="268" max="268" width="30.6640625" style="4" customWidth="1"/>
-    <col min="269" max="270" width="10.6640625" style="4" customWidth="1"/>
-    <col min="271" max="271" width="45.6640625" style="4" customWidth="1"/>
-    <col min="272" max="272" width="30.6640625" style="4" customWidth="1"/>
-    <col min="273" max="274" width="10.6640625" style="4" customWidth="1"/>
-    <col min="275" max="275" width="45.6640625" style="4" customWidth="1"/>
-    <col min="276" max="276" width="30.6640625" style="4" customWidth="1"/>
-    <col min="277" max="278" width="10.6640625" style="4" customWidth="1"/>
-    <col min="279" max="279" width="45.6640625" style="4" customWidth="1"/>
-    <col min="280" max="280" width="30.6640625" style="4" customWidth="1"/>
-    <col min="281" max="282" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="191" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="191" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="191" customWidth="1"/>
+    <col min="11" max="11" width="45.7109375" style="191" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="191" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="191" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="121" customWidth="1"/>
+    <col min="15" max="15" width="45.7109375" style="76" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" style="76" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="76" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="192" customWidth="1"/>
+    <col min="19" max="19" width="45.7109375" style="76" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" style="76" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="76" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="176" customWidth="1"/>
+    <col min="23" max="23" width="42.85546875" style="19" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="19" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="19" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="158" customWidth="1"/>
+    <col min="27" max="27" width="5.42578125" style="82" customWidth="1"/>
+    <col min="28" max="28" width="35.28515625" style="1" customWidth="1"/>
+    <col min="29" max="256" width="8.85546875" style="4"/>
+    <col min="257" max="257" width="4.42578125" style="4" customWidth="1"/>
+    <col min="258" max="258" width="21.28515625" style="4" customWidth="1"/>
+    <col min="259" max="259" width="45.7109375" style="4" customWidth="1"/>
+    <col min="260" max="260" width="30.7109375" style="4" customWidth="1"/>
+    <col min="261" max="262" width="10.7109375" style="4" customWidth="1"/>
+    <col min="263" max="263" width="45.7109375" style="4" customWidth="1"/>
+    <col min="264" max="264" width="30.7109375" style="4" customWidth="1"/>
+    <col min="265" max="266" width="10.7109375" style="4" customWidth="1"/>
+    <col min="267" max="267" width="45.7109375" style="4" customWidth="1"/>
+    <col min="268" max="268" width="30.7109375" style="4" customWidth="1"/>
+    <col min="269" max="270" width="10.7109375" style="4" customWidth="1"/>
+    <col min="271" max="271" width="45.7109375" style="4" customWidth="1"/>
+    <col min="272" max="272" width="30.7109375" style="4" customWidth="1"/>
+    <col min="273" max="274" width="10.7109375" style="4" customWidth="1"/>
+    <col min="275" max="275" width="45.7109375" style="4" customWidth="1"/>
+    <col min="276" max="276" width="30.7109375" style="4" customWidth="1"/>
+    <col min="277" max="278" width="10.7109375" style="4" customWidth="1"/>
+    <col min="279" max="279" width="45.7109375" style="4" customWidth="1"/>
+    <col min="280" max="280" width="30.7109375" style="4" customWidth="1"/>
+    <col min="281" max="282" width="10.7109375" style="4" customWidth="1"/>
     <col min="283" max="283" width="35" style="4" customWidth="1"/>
-    <col min="284" max="512" width="8.88671875" style="4"/>
-    <col min="513" max="513" width="4.44140625" style="4" customWidth="1"/>
-    <col min="514" max="514" width="21.33203125" style="4" customWidth="1"/>
-    <col min="515" max="515" width="45.6640625" style="4" customWidth="1"/>
-    <col min="516" max="516" width="30.6640625" style="4" customWidth="1"/>
-    <col min="517" max="518" width="10.6640625" style="4" customWidth="1"/>
-    <col min="519" max="519" width="45.6640625" style="4" customWidth="1"/>
-    <col min="520" max="520" width="30.6640625" style="4" customWidth="1"/>
-    <col min="521" max="522" width="10.6640625" style="4" customWidth="1"/>
-    <col min="523" max="523" width="45.6640625" style="4" customWidth="1"/>
-    <col min="524" max="524" width="30.6640625" style="4" customWidth="1"/>
-    <col min="525" max="526" width="10.6640625" style="4" customWidth="1"/>
-    <col min="527" max="527" width="45.6640625" style="4" customWidth="1"/>
-    <col min="528" max="528" width="30.6640625" style="4" customWidth="1"/>
-    <col min="529" max="530" width="10.6640625" style="4" customWidth="1"/>
-    <col min="531" max="531" width="45.6640625" style="4" customWidth="1"/>
-    <col min="532" max="532" width="30.6640625" style="4" customWidth="1"/>
-    <col min="533" max="534" width="10.6640625" style="4" customWidth="1"/>
-    <col min="535" max="535" width="45.6640625" style="4" customWidth="1"/>
-    <col min="536" max="536" width="30.6640625" style="4" customWidth="1"/>
-    <col min="537" max="538" width="10.6640625" style="4" customWidth="1"/>
+    <col min="284" max="512" width="8.85546875" style="4"/>
+    <col min="513" max="513" width="4.42578125" style="4" customWidth="1"/>
+    <col min="514" max="514" width="21.28515625" style="4" customWidth="1"/>
+    <col min="515" max="515" width="45.7109375" style="4" customWidth="1"/>
+    <col min="516" max="516" width="30.7109375" style="4" customWidth="1"/>
+    <col min="517" max="518" width="10.7109375" style="4" customWidth="1"/>
+    <col min="519" max="519" width="45.7109375" style="4" customWidth="1"/>
+    <col min="520" max="520" width="30.7109375" style="4" customWidth="1"/>
+    <col min="521" max="522" width="10.7109375" style="4" customWidth="1"/>
+    <col min="523" max="523" width="45.7109375" style="4" customWidth="1"/>
+    <col min="524" max="524" width="30.7109375" style="4" customWidth="1"/>
+    <col min="525" max="526" width="10.7109375" style="4" customWidth="1"/>
+    <col min="527" max="527" width="45.7109375" style="4" customWidth="1"/>
+    <col min="528" max="528" width="30.7109375" style="4" customWidth="1"/>
+    <col min="529" max="530" width="10.7109375" style="4" customWidth="1"/>
+    <col min="531" max="531" width="45.7109375" style="4" customWidth="1"/>
+    <col min="532" max="532" width="30.7109375" style="4" customWidth="1"/>
+    <col min="533" max="534" width="10.7109375" style="4" customWidth="1"/>
+    <col min="535" max="535" width="45.7109375" style="4" customWidth="1"/>
+    <col min="536" max="536" width="30.7109375" style="4" customWidth="1"/>
+    <col min="537" max="538" width="10.7109375" style="4" customWidth="1"/>
     <col min="539" max="539" width="35" style="4" customWidth="1"/>
-    <col min="540" max="768" width="8.88671875" style="4"/>
-    <col min="769" max="769" width="4.44140625" style="4" customWidth="1"/>
-    <col min="770" max="770" width="21.33203125" style="4" customWidth="1"/>
-    <col min="771" max="771" width="45.6640625" style="4" customWidth="1"/>
-    <col min="772" max="772" width="30.6640625" style="4" customWidth="1"/>
-    <col min="773" max="774" width="10.6640625" style="4" customWidth="1"/>
-    <col min="775" max="775" width="45.6640625" style="4" customWidth="1"/>
-    <col min="776" max="776" width="30.6640625" style="4" customWidth="1"/>
-    <col min="777" max="778" width="10.6640625" style="4" customWidth="1"/>
-    <col min="779" max="779" width="45.6640625" style="4" customWidth="1"/>
-    <col min="780" max="780" width="30.6640625" style="4" customWidth="1"/>
-    <col min="781" max="782" width="10.6640625" style="4" customWidth="1"/>
-    <col min="783" max="783" width="45.6640625" style="4" customWidth="1"/>
-    <col min="784" max="784" width="30.6640625" style="4" customWidth="1"/>
-    <col min="785" max="786" width="10.6640625" style="4" customWidth="1"/>
-    <col min="787" max="787" width="45.6640625" style="4" customWidth="1"/>
-    <col min="788" max="788" width="30.6640625" style="4" customWidth="1"/>
-    <col min="789" max="790" width="10.6640625" style="4" customWidth="1"/>
-    <col min="791" max="791" width="45.6640625" style="4" customWidth="1"/>
-    <col min="792" max="792" width="30.6640625" style="4" customWidth="1"/>
-    <col min="793" max="794" width="10.6640625" style="4" customWidth="1"/>
+    <col min="540" max="768" width="8.85546875" style="4"/>
+    <col min="769" max="769" width="4.42578125" style="4" customWidth="1"/>
+    <col min="770" max="770" width="21.28515625" style="4" customWidth="1"/>
+    <col min="771" max="771" width="45.7109375" style="4" customWidth="1"/>
+    <col min="772" max="772" width="30.7109375" style="4" customWidth="1"/>
+    <col min="773" max="774" width="10.7109375" style="4" customWidth="1"/>
+    <col min="775" max="775" width="45.7109375" style="4" customWidth="1"/>
+    <col min="776" max="776" width="30.7109375" style="4" customWidth="1"/>
+    <col min="777" max="778" width="10.7109375" style="4" customWidth="1"/>
+    <col min="779" max="779" width="45.7109375" style="4" customWidth="1"/>
+    <col min="780" max="780" width="30.7109375" style="4" customWidth="1"/>
+    <col min="781" max="782" width="10.7109375" style="4" customWidth="1"/>
+    <col min="783" max="783" width="45.7109375" style="4" customWidth="1"/>
+    <col min="784" max="784" width="30.7109375" style="4" customWidth="1"/>
+    <col min="785" max="786" width="10.7109375" style="4" customWidth="1"/>
+    <col min="787" max="787" width="45.7109375" style="4" customWidth="1"/>
+    <col min="788" max="788" width="30.7109375" style="4" customWidth="1"/>
+    <col min="789" max="790" width="10.7109375" style="4" customWidth="1"/>
+    <col min="791" max="791" width="45.7109375" style="4" customWidth="1"/>
+    <col min="792" max="792" width="30.7109375" style="4" customWidth="1"/>
+    <col min="793" max="794" width="10.7109375" style="4" customWidth="1"/>
     <col min="795" max="795" width="35" style="4" customWidth="1"/>
-    <col min="796" max="1024" width="8.88671875" style="4"/>
-    <col min="1025" max="1025" width="4.44140625" style="4" customWidth="1"/>
-    <col min="1026" max="1026" width="21.33203125" style="4" customWidth="1"/>
-    <col min="1027" max="1027" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1028" max="1028" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1029" max="1030" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1031" max="1031" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1032" max="1032" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1033" max="1034" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1035" max="1035" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1036" max="1036" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1037" max="1038" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1039" max="1039" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1040" max="1040" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1041" max="1042" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1043" max="1043" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1044" max="1044" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1045" max="1046" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1047" max="1047" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1048" max="1048" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1049" max="1050" width="10.6640625" style="4" customWidth="1"/>
+    <col min="796" max="1024" width="8.85546875" style="4"/>
+    <col min="1025" max="1025" width="4.42578125" style="4" customWidth="1"/>
+    <col min="1026" max="1026" width="21.28515625" style="4" customWidth="1"/>
+    <col min="1027" max="1027" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1029" max="1030" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1031" max="1031" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1032" max="1032" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1033" max="1034" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1035" max="1035" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1036" max="1036" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1037" max="1038" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1039" max="1039" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1040" max="1040" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1041" max="1042" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1043" max="1043" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1044" max="1044" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1045" max="1046" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1047" max="1047" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1048" max="1048" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1049" max="1050" width="10.7109375" style="4" customWidth="1"/>
     <col min="1051" max="1051" width="35" style="4" customWidth="1"/>
-    <col min="1052" max="1280" width="8.88671875" style="4"/>
-    <col min="1281" max="1281" width="4.44140625" style="4" customWidth="1"/>
-    <col min="1282" max="1282" width="21.33203125" style="4" customWidth="1"/>
-    <col min="1283" max="1283" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1284" max="1284" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1285" max="1286" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1287" max="1287" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1288" max="1288" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1289" max="1290" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1291" max="1291" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1292" max="1292" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1293" max="1294" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1295" max="1295" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1296" max="1296" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1297" max="1298" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1299" max="1299" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1300" max="1300" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1301" max="1302" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1303" max="1303" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1304" max="1304" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1305" max="1306" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1052" max="1280" width="8.85546875" style="4"/>
+    <col min="1281" max="1281" width="4.42578125" style="4" customWidth="1"/>
+    <col min="1282" max="1282" width="21.28515625" style="4" customWidth="1"/>
+    <col min="1283" max="1283" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1285" max="1286" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1287" max="1287" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1288" max="1288" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1289" max="1290" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1291" max="1291" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1292" max="1292" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1293" max="1294" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1295" max="1295" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1296" max="1296" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1297" max="1298" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1299" max="1299" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1300" max="1300" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1301" max="1302" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1303" max="1303" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1304" max="1304" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1305" max="1306" width="10.7109375" style="4" customWidth="1"/>
     <col min="1307" max="1307" width="35" style="4" customWidth="1"/>
-    <col min="1308" max="1536" width="8.88671875" style="4"/>
-    <col min="1537" max="1537" width="4.44140625" style="4" customWidth="1"/>
-    <col min="1538" max="1538" width="21.33203125" style="4" customWidth="1"/>
-    <col min="1539" max="1539" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1540" max="1540" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1541" max="1542" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1543" max="1543" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1544" max="1544" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1545" max="1546" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1547" max="1547" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1548" max="1548" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1549" max="1550" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1551" max="1551" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1552" max="1552" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1553" max="1554" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1555" max="1555" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1556" max="1556" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1557" max="1558" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1559" max="1559" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1560" max="1560" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1561" max="1562" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1308" max="1536" width="8.85546875" style="4"/>
+    <col min="1537" max="1537" width="4.42578125" style="4" customWidth="1"/>
+    <col min="1538" max="1538" width="21.28515625" style="4" customWidth="1"/>
+    <col min="1539" max="1539" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1541" max="1542" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1543" max="1543" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1544" max="1544" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1545" max="1546" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1547" max="1547" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1548" max="1548" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1549" max="1550" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1551" max="1551" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1552" max="1552" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1553" max="1554" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1555" max="1555" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1556" max="1556" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1557" max="1558" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1559" max="1559" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1560" max="1560" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1561" max="1562" width="10.7109375" style="4" customWidth="1"/>
     <col min="1563" max="1563" width="35" style="4" customWidth="1"/>
-    <col min="1564" max="1792" width="8.88671875" style="4"/>
-    <col min="1793" max="1793" width="4.44140625" style="4" customWidth="1"/>
-    <col min="1794" max="1794" width="21.33203125" style="4" customWidth="1"/>
-    <col min="1795" max="1795" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1796" max="1796" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1797" max="1798" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1799" max="1799" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1800" max="1800" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1801" max="1802" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1803" max="1803" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1804" max="1804" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1805" max="1806" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1807" max="1807" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1808" max="1808" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1809" max="1810" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1811" max="1811" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1812" max="1812" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1813" max="1814" width="10.6640625" style="4" customWidth="1"/>
-    <col min="1815" max="1815" width="45.6640625" style="4" customWidth="1"/>
-    <col min="1816" max="1816" width="30.6640625" style="4" customWidth="1"/>
-    <col min="1817" max="1818" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1564" max="1792" width="8.85546875" style="4"/>
+    <col min="1793" max="1793" width="4.42578125" style="4" customWidth="1"/>
+    <col min="1794" max="1794" width="21.28515625" style="4" customWidth="1"/>
+    <col min="1795" max="1795" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1797" max="1798" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1799" max="1799" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1800" max="1800" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1801" max="1802" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1803" max="1803" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1804" max="1804" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1805" max="1806" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1807" max="1807" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1808" max="1808" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1809" max="1810" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1811" max="1811" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1812" max="1812" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1813" max="1814" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1815" max="1815" width="45.7109375" style="4" customWidth="1"/>
+    <col min="1816" max="1816" width="30.7109375" style="4" customWidth="1"/>
+    <col min="1817" max="1818" width="10.7109375" style="4" customWidth="1"/>
     <col min="1819" max="1819" width="35" style="4" customWidth="1"/>
-    <col min="1820" max="2048" width="8.88671875" style="4"/>
-    <col min="2049" max="2049" width="4.44140625" style="4" customWidth="1"/>
-    <col min="2050" max="2050" width="21.33203125" style="4" customWidth="1"/>
-    <col min="2051" max="2051" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2052" max="2052" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2053" max="2054" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2055" max="2055" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2056" max="2056" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2057" max="2058" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2059" max="2059" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2060" max="2060" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2061" max="2062" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2063" max="2063" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2064" max="2064" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2065" max="2066" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2067" max="2067" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2068" max="2068" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2069" max="2070" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2071" max="2071" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2072" max="2072" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2073" max="2074" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1820" max="2048" width="8.85546875" style="4"/>
+    <col min="2049" max="2049" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2050" max="2050" width="21.28515625" style="4" customWidth="1"/>
+    <col min="2051" max="2051" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2053" max="2054" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2055" max="2055" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2056" max="2056" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2057" max="2058" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2059" max="2059" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2060" max="2060" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2061" max="2062" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2063" max="2063" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2064" max="2064" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2065" max="2066" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2067" max="2067" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2068" max="2068" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2069" max="2070" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2071" max="2071" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2072" max="2072" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2073" max="2074" width="10.7109375" style="4" customWidth="1"/>
     <col min="2075" max="2075" width="35" style="4" customWidth="1"/>
-    <col min="2076" max="2304" width="8.88671875" style="4"/>
-    <col min="2305" max="2305" width="4.44140625" style="4" customWidth="1"/>
-    <col min="2306" max="2306" width="21.33203125" style="4" customWidth="1"/>
-    <col min="2307" max="2307" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2308" max="2308" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2309" max="2310" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2311" max="2311" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2312" max="2312" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2313" max="2314" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2315" max="2315" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2316" max="2316" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2317" max="2318" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2319" max="2319" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2320" max="2320" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2321" max="2322" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2323" max="2323" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2324" max="2324" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2325" max="2326" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2327" max="2327" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2328" max="2328" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2329" max="2330" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2076" max="2304" width="8.85546875" style="4"/>
+    <col min="2305" max="2305" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2306" max="2306" width="21.28515625" style="4" customWidth="1"/>
+    <col min="2307" max="2307" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2309" max="2310" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2311" max="2311" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2312" max="2312" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2313" max="2314" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2315" max="2315" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2316" max="2316" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2317" max="2318" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2319" max="2319" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2320" max="2320" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2321" max="2322" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2323" max="2323" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2324" max="2324" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2325" max="2326" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2327" max="2327" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2328" max="2328" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2329" max="2330" width="10.7109375" style="4" customWidth="1"/>
     <col min="2331" max="2331" width="35" style="4" customWidth="1"/>
-    <col min="2332" max="2560" width="8.88671875" style="4"/>
-    <col min="2561" max="2561" width="4.44140625" style="4" customWidth="1"/>
-    <col min="2562" max="2562" width="21.33203125" style="4" customWidth="1"/>
-    <col min="2563" max="2563" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2564" max="2564" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2565" max="2566" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2567" max="2567" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2568" max="2568" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2569" max="2570" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2571" max="2571" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2572" max="2572" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2573" max="2574" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2575" max="2575" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2576" max="2576" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2577" max="2578" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2579" max="2579" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2580" max="2580" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2581" max="2582" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2583" max="2583" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2584" max="2584" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2585" max="2586" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2332" max="2560" width="8.85546875" style="4"/>
+    <col min="2561" max="2561" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2562" max="2562" width="21.28515625" style="4" customWidth="1"/>
+    <col min="2563" max="2563" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2565" max="2566" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2567" max="2567" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2568" max="2568" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2569" max="2570" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2571" max="2571" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2572" max="2572" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2573" max="2574" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2575" max="2575" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2576" max="2576" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2577" max="2578" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2579" max="2579" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2580" max="2580" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2581" max="2582" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2583" max="2583" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2584" max="2584" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2585" max="2586" width="10.7109375" style="4" customWidth="1"/>
     <col min="2587" max="2587" width="35" style="4" customWidth="1"/>
-    <col min="2588" max="2816" width="8.88671875" style="4"/>
-    <col min="2817" max="2817" width="4.44140625" style="4" customWidth="1"/>
-    <col min="2818" max="2818" width="21.33203125" style="4" customWidth="1"/>
-    <col min="2819" max="2819" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2820" max="2820" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2821" max="2822" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2823" max="2823" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2824" max="2824" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2825" max="2826" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2827" max="2827" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2828" max="2828" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2829" max="2830" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2831" max="2831" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2832" max="2832" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2833" max="2834" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2835" max="2835" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2836" max="2836" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2837" max="2838" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2839" max="2839" width="45.6640625" style="4" customWidth="1"/>
-    <col min="2840" max="2840" width="30.6640625" style="4" customWidth="1"/>
-    <col min="2841" max="2842" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2588" max="2816" width="8.85546875" style="4"/>
+    <col min="2817" max="2817" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2818" max="2818" width="21.28515625" style="4" customWidth="1"/>
+    <col min="2819" max="2819" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2821" max="2822" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2823" max="2823" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2824" max="2824" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2825" max="2826" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2827" max="2827" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2828" max="2828" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2829" max="2830" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2831" max="2831" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2832" max="2832" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2833" max="2834" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2835" max="2835" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2836" max="2836" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2837" max="2838" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2839" max="2839" width="45.7109375" style="4" customWidth="1"/>
+    <col min="2840" max="2840" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2841" max="2842" width="10.7109375" style="4" customWidth="1"/>
     <col min="2843" max="2843" width="35" style="4" customWidth="1"/>
-    <col min="2844" max="3072" width="8.88671875" style="4"/>
-    <col min="3073" max="3073" width="4.44140625" style="4" customWidth="1"/>
-    <col min="3074" max="3074" width="21.33203125" style="4" customWidth="1"/>
-    <col min="3075" max="3075" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3076" max="3076" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3077" max="3078" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3079" max="3079" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3080" max="3080" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3081" max="3082" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3083" max="3083" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3084" max="3084" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3085" max="3086" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3087" max="3087" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3088" max="3088" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3089" max="3090" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3091" max="3091" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3092" max="3092" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3093" max="3094" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3095" max="3095" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3096" max="3096" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3097" max="3098" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2844" max="3072" width="8.85546875" style="4"/>
+    <col min="3073" max="3073" width="4.42578125" style="4" customWidth="1"/>
+    <col min="3074" max="3074" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3075" max="3075" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3077" max="3078" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3079" max="3079" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3080" max="3080" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3081" max="3082" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3083" max="3083" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3084" max="3084" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3085" max="3086" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3087" max="3087" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3088" max="3088" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3089" max="3090" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3091" max="3091" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3092" max="3092" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3093" max="3094" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3095" max="3095" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3096" max="3096" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3097" max="3098" width="10.7109375" style="4" customWidth="1"/>
     <col min="3099" max="3099" width="35" style="4" customWidth="1"/>
-    <col min="3100" max="3328" width="8.88671875" style="4"/>
-    <col min="3329" max="3329" width="4.44140625" style="4" customWidth="1"/>
-    <col min="3330" max="3330" width="21.33203125" style="4" customWidth="1"/>
-    <col min="3331" max="3331" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3332" max="3332" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3333" max="3334" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3335" max="3335" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3336" max="3336" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3337" max="3338" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3339" max="3339" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3340" max="3340" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3341" max="3342" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3343" max="3343" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3344" max="3344" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3345" max="3346" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3347" max="3347" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3348" max="3348" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3349" max="3350" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3351" max="3351" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3352" max="3352" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3353" max="3354" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3100" max="3328" width="8.85546875" style="4"/>
+    <col min="3329" max="3329" width="4.42578125" style="4" customWidth="1"/>
+    <col min="3330" max="3330" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3331" max="3331" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3333" max="3334" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3335" max="3335" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3336" max="3336" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3337" max="3338" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3339" max="3339" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3340" max="3340" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3341" max="3342" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3343" max="3343" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3344" max="3344" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3345" max="3346" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3347" max="3347" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3348" max="3348" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3349" max="3350" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3351" max="3351" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3352" max="3352" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3353" max="3354" width="10.7109375" style="4" customWidth="1"/>
     <col min="3355" max="3355" width="35" style="4" customWidth="1"/>
-    <col min="3356" max="3584" width="8.88671875" style="4"/>
-    <col min="3585" max="3585" width="4.44140625" style="4" customWidth="1"/>
-    <col min="3586" max="3586" width="21.33203125" style="4" customWidth="1"/>
-    <col min="3587" max="3587" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3588" max="3588" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3589" max="3590" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3591" max="3591" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3592" max="3592" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3593" max="3594" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3595" max="3595" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3596" max="3596" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3597" max="3598" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3599" max="3599" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3600" max="3600" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3601" max="3602" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3603" max="3603" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3604" max="3604" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3605" max="3606" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3607" max="3607" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3608" max="3608" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3609" max="3610" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3356" max="3584" width="8.85546875" style="4"/>
+    <col min="3585" max="3585" width="4.42578125" style="4" customWidth="1"/>
+    <col min="3586" max="3586" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3587" max="3587" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3589" max="3590" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3591" max="3591" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3592" max="3592" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3593" max="3594" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3595" max="3595" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3596" max="3596" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3597" max="3598" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3599" max="3599" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3600" max="3600" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3601" max="3602" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3603" max="3603" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3604" max="3604" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3605" max="3606" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3607" max="3607" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3608" max="3608" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3609" max="3610" width="10.7109375" style="4" customWidth="1"/>
     <col min="3611" max="3611" width="35" style="4" customWidth="1"/>
-    <col min="3612" max="3840" width="8.88671875" style="4"/>
-    <col min="3841" max="3841" width="4.44140625" style="4" customWidth="1"/>
-    <col min="3842" max="3842" width="21.33203125" style="4" customWidth="1"/>
-    <col min="3843" max="3843" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3844" max="3844" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3845" max="3846" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3847" max="3847" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3848" max="3848" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3849" max="3850" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3851" max="3851" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3852" max="3852" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3853" max="3854" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3855" max="3855" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3856" max="3856" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3857" max="3858" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3859" max="3859" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3860" max="3860" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3861" max="3862" width="10.6640625" style="4" customWidth="1"/>
-    <col min="3863" max="3863" width="45.6640625" style="4" customWidth="1"/>
-    <col min="3864" max="3864" width="30.6640625" style="4" customWidth="1"/>
-    <col min="3865" max="3866" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3612" max="3840" width="8.85546875" style="4"/>
+    <col min="3841" max="3841" width="4.42578125" style="4" customWidth="1"/>
+    <col min="3842" max="3842" width="21.28515625" style="4" customWidth="1"/>
+    <col min="3843" max="3843" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3845" max="3846" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3847" max="3847" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3848" max="3848" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3849" max="3850" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3851" max="3851" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3852" max="3852" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3853" max="3854" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3855" max="3855" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3856" max="3856" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3857" max="3858" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3859" max="3859" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3860" max="3860" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3861" max="3862" width="10.7109375" style="4" customWidth="1"/>
+    <col min="3863" max="3863" width="45.7109375" style="4" customWidth="1"/>
+    <col min="3864" max="3864" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3865" max="3866" width="10.7109375" style="4" customWidth="1"/>
     <col min="3867" max="3867" width="35" style="4" customWidth="1"/>
-    <col min="3868" max="4096" width="8.88671875" style="4"/>
-    <col min="4097" max="4097" width="4.44140625" style="4" customWidth="1"/>
-    <col min="4098" max="4098" width="21.33203125" style="4" customWidth="1"/>
-    <col min="4099" max="4099" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4100" max="4100" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4101" max="4102" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4103" max="4103" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4104" max="4104" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4105" max="4106" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4107" max="4107" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4108" max="4108" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4109" max="4110" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4111" max="4111" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4112" max="4112" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4113" max="4114" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4115" max="4115" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4116" max="4116" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4117" max="4118" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4119" max="4119" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4120" max="4120" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4121" max="4122" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3868" max="4096" width="8.85546875" style="4"/>
+    <col min="4097" max="4097" width="4.42578125" style="4" customWidth="1"/>
+    <col min="4098" max="4098" width="21.28515625" style="4" customWidth="1"/>
+    <col min="4099" max="4099" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4101" max="4102" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4103" max="4103" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4104" max="4104" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4105" max="4106" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4107" max="4107" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4108" max="4108" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4109" max="4110" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4111" max="4111" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4112" max="4112" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4113" max="4114" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4115" max="4115" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4116" max="4116" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4117" max="4118" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4119" max="4119" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4120" max="4120" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4121" max="4122" width="10.7109375" style="4" customWidth="1"/>
     <col min="4123" max="4123" width="35" style="4" customWidth="1"/>
-    <col min="4124" max="4352" width="8.88671875" style="4"/>
-    <col min="4353" max="4353" width="4.44140625" style="4" customWidth="1"/>
-    <col min="4354" max="4354" width="21.33203125" style="4" customWidth="1"/>
-    <col min="4355" max="4355" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4356" max="4356" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4357" max="4358" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4359" max="4359" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4360" max="4360" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4361" max="4362" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4363" max="4363" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4364" max="4364" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4365" max="4366" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4367" max="4367" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4368" max="4368" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4369" max="4370" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4371" max="4371" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4372" max="4372" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4373" max="4374" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4375" max="4375" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4376" max="4376" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4377" max="4378" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4124" max="4352" width="8.85546875" style="4"/>
+    <col min="4353" max="4353" width="4.42578125" style="4" customWidth="1"/>
+    <col min="4354" max="4354" width="21.28515625" style="4" customWidth="1"/>
+    <col min="4355" max="4355" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4357" max="4358" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4359" max="4359" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4360" max="4360" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4361" max="4362" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4363" max="4363" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4364" max="4364" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4365" max="4366" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4367" max="4367" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4368" max="4368" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4369" max="4370" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4371" max="4371" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4372" max="4372" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4373" max="4374" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4375" max="4375" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4376" max="4376" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4377" max="4378" width="10.7109375" style="4" customWidth="1"/>
     <col min="4379" max="4379" width="35" style="4" customWidth="1"/>
-    <col min="4380" max="4608" width="8.88671875" style="4"/>
-    <col min="4609" max="4609" width="4.44140625" style="4" customWidth="1"/>
-    <col min="4610" max="4610" width="21.33203125" style="4" customWidth="1"/>
-    <col min="4611" max="4611" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4612" max="4612" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4613" max="4614" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4615" max="4615" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4616" max="4616" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4617" max="4618" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4619" max="4619" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4620" max="4620" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4621" max="4622" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4623" max="4623" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4624" max="4624" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4625" max="4626" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4627" max="4627" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4628" max="4628" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4629" max="4630" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4631" max="4631" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4632" max="4632" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4633" max="4634" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4380" max="4608" width="8.85546875" style="4"/>
+    <col min="4609" max="4609" width="4.42578125" style="4" customWidth="1"/>
+    <col min="4610" max="4610" width="21.28515625" style="4" customWidth="1"/>
+    <col min="4611" max="4611" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4613" max="4614" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4615" max="4615" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4616" max="4616" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4617" max="4618" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4619" max="4619" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4620" max="4620" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4621" max="4622" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4623" max="4623" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4624" max="4624" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4625" max="4626" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4627" max="4627" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4628" max="4628" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4629" max="4630" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4631" max="4631" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4632" max="4632" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4633" max="4634" width="10.7109375" style="4" customWidth="1"/>
     <col min="4635" max="4635" width="35" style="4" customWidth="1"/>
-    <col min="4636" max="4864" width="8.88671875" style="4"/>
-    <col min="4865" max="4865" width="4.44140625" style="4" customWidth="1"/>
-    <col min="4866" max="4866" width="21.33203125" style="4" customWidth="1"/>
-    <col min="4867" max="4867" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4868" max="4868" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4869" max="4870" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4871" max="4871" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4872" max="4872" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4873" max="4874" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4875" max="4875" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4876" max="4876" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4877" max="4878" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4879" max="4879" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4880" max="4880" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4881" max="4882" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4883" max="4883" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4884" max="4884" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4885" max="4886" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4887" max="4887" width="45.6640625" style="4" customWidth="1"/>
-    <col min="4888" max="4888" width="30.6640625" style="4" customWidth="1"/>
-    <col min="4889" max="4890" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4636" max="4864" width="8.85546875" style="4"/>
+    <col min="4865" max="4865" width="4.42578125" style="4" customWidth="1"/>
+    <col min="4866" max="4866" width="21.28515625" style="4" customWidth="1"/>
+    <col min="4867" max="4867" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4869" max="4870" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4871" max="4871" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4872" max="4872" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4873" max="4874" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4875" max="4875" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4876" max="4876" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4877" max="4878" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4879" max="4879" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4880" max="4880" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4881" max="4882" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4883" max="4883" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4884" max="4884" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4885" max="4886" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4887" max="4887" width="45.7109375" style="4" customWidth="1"/>
+    <col min="4888" max="4888" width="30.7109375" style="4" customWidth="1"/>
+    <col min="4889" max="4890" width="10.7109375" style="4" customWidth="1"/>
     <col min="4891" max="4891" width="35" style="4" customWidth="1"/>
-    <col min="4892" max="5120" width="8.88671875" style="4"/>
-    <col min="5121" max="5121" width="4.44140625" style="4" customWidth="1"/>
-    <col min="5122" max="5122" width="21.33203125" style="4" customWidth="1"/>
-    <col min="5123" max="5123" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5124" max="5124" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5125" max="5126" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5127" max="5127" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5128" max="5128" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5129" max="5130" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5131" max="5131" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5132" max="5132" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5133" max="5134" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5135" max="5135" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5136" max="5136" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5137" max="5138" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5139" max="5139" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5140" max="5140" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5141" max="5142" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5143" max="5143" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5144" max="5144" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5145" max="5146" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4892" max="5120" width="8.85546875" style="4"/>
+    <col min="5121" max="5121" width="4.42578125" style="4" customWidth="1"/>
+    <col min="5122" max="5122" width="21.28515625" style="4" customWidth="1"/>
+    <col min="5123" max="5123" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5125" max="5126" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5127" max="5127" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5128" max="5128" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5129" max="5130" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5131" max="5131" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5132" max="5132" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5133" max="5134" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5135" max="5135" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5136" max="5136" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5137" max="5138" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5139" max="5139" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5140" max="5140" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5141" max="5142" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5143" max="5143" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5144" max="5144" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5145" max="5146" width="10.7109375" style="4" customWidth="1"/>
     <col min="5147" max="5147" width="35" style="4" customWidth="1"/>
-    <col min="5148" max="5376" width="8.88671875" style="4"/>
-    <col min="5377" max="5377" width="4.44140625" style="4" customWidth="1"/>
-    <col min="5378" max="5378" width="21.33203125" style="4" customWidth="1"/>
-    <col min="5379" max="5379" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5380" max="5380" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5381" max="5382" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5383" max="5383" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5384" max="5384" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5385" max="5386" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5387" max="5387" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5388" max="5388" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5389" max="5390" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5391" max="5391" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5392" max="5392" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5393" max="5394" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5395" max="5395" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5396" max="5396" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5397" max="5398" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5399" max="5399" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5400" max="5400" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5401" max="5402" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5148" max="5376" width="8.85546875" style="4"/>
+    <col min="5377" max="5377" width="4.42578125" style="4" customWidth="1"/>
+    <col min="5378" max="5378" width="21.28515625" style="4" customWidth="1"/>
+    <col min="5379" max="5379" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5381" max="5382" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5383" max="5383" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5384" max="5384" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5385" max="5386" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5387" max="5387" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5388" max="5388" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5389" max="5390" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5391" max="5391" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5392" max="5392" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5393" max="5394" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5395" max="5395" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5396" max="5396" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5397" max="5398" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5399" max="5399" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5400" max="5400" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5401" max="5402" width="10.7109375" style="4" customWidth="1"/>
     <col min="5403" max="5403" width="35" style="4" customWidth="1"/>
-    <col min="5404" max="5632" width="8.88671875" style="4"/>
-    <col min="5633" max="5633" width="4.44140625" style="4" customWidth="1"/>
-    <col min="5634" max="5634" width="21.33203125" style="4" customWidth="1"/>
-    <col min="5635" max="5635" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5636" max="5636" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5637" max="5638" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5639" max="5639" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5640" max="5640" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5641" max="5642" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5643" max="5643" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5644" max="5644" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5645" max="5646" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5647" max="5647" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5648" max="5648" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5649" max="5650" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5651" max="5651" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5652" max="5652" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5653" max="5654" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5655" max="5655" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5656" max="5656" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5657" max="5658" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5404" max="5632" width="8.85546875" style="4"/>
+    <col min="5633" max="5633" width="4.42578125" style="4" customWidth="1"/>
+    <col min="5634" max="5634" width="21.28515625" style="4" customWidth="1"/>
+    <col min="5635" max="5635" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5637" max="5638" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5639" max="5639" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5640" max="5640" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5641" max="5642" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5643" max="5643" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5644" max="5644" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5645" max="5646" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5647" max="5647" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5648" max="5648" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5649" max="5650" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5651" max="5651" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5652" max="5652" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5653" max="5654" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5655" max="5655" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5656" max="5656" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5657" max="5658" width="10.7109375" style="4" customWidth="1"/>
     <col min="5659" max="5659" width="35" style="4" customWidth="1"/>
-    <col min="5660" max="5888" width="8.88671875" style="4"/>
-    <col min="5889" max="5889" width="4.44140625" style="4" customWidth="1"/>
-    <col min="5890" max="5890" width="21.33203125" style="4" customWidth="1"/>
-    <col min="5891" max="5891" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5892" max="5892" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5893" max="5894" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5895" max="5895" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5896" max="5896" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5897" max="5898" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5899" max="5899" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5900" max="5900" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5901" max="5902" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5903" max="5903" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5904" max="5904" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5905" max="5906" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5907" max="5907" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5908" max="5908" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5909" max="5910" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5911" max="5911" width="45.6640625" style="4" customWidth="1"/>
-    <col min="5912" max="5912" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5913" max="5914" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5660" max="5888" width="8.85546875" style="4"/>
+    <col min="5889" max="5889" width="4.42578125" style="4" customWidth="1"/>
+    <col min="5890" max="5890" width="21.28515625" style="4" customWidth="1"/>
+    <col min="5891" max="5891" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5893" max="5894" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5895" max="5895" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5896" max="5896" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5897" max="5898" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5899" max="5899" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5900" max="5900" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5901" max="5902" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5903" max="5903" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5904" max="5904" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5905" max="5906" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5907" max="5907" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5908" max="5908" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5909" max="5910" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5911" max="5911" width="45.7109375" style="4" customWidth="1"/>
+    <col min="5912" max="5912" width="30.7109375" style="4" customWidth="1"/>
+    <col min="5913" max="5914" width="10.7109375" style="4" customWidth="1"/>
     <col min="5915" max="5915" width="35" style="4" customWidth="1"/>
-    <col min="5916" max="6144" width="8.88671875" style="4"/>
-    <col min="6145" max="6145" width="4.44140625" style="4" customWidth="1"/>
-    <col min="6146" max="6146" width="21.33203125" style="4" customWidth="1"/>
-    <col min="6147" max="6147" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6148" max="6148" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6149" max="6150" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6151" max="6151" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6152" max="6152" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6153" max="6154" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6155" max="6155" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6156" max="6156" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6157" max="6158" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6159" max="6159" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6160" max="6160" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6161" max="6162" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6163" max="6163" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6164" max="6164" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6165" max="6166" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6167" max="6167" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6168" max="6168" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6169" max="6170" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5916" max="6144" width="8.85546875" style="4"/>
+    <col min="6145" max="6145" width="4.42578125" style="4" customWidth="1"/>
+    <col min="6146" max="6146" width="21.28515625" style="4" customWidth="1"/>
+    <col min="6147" max="6147" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6149" max="6150" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6151" max="6151" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6152" max="6152" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6153" max="6154" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6155" max="6155" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6156" max="6156" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6157" max="6158" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6159" max="6159" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6160" max="6160" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6161" max="6162" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6163" max="6163" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6164" max="6164" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6165" max="6166" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6167" max="6167" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6168" max="6168" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6169" max="6170" width="10.7109375" style="4" customWidth="1"/>
     <col min="6171" max="6171" width="35" style="4" customWidth="1"/>
-    <col min="6172" max="6400" width="8.88671875" style="4"/>
-    <col min="6401" max="6401" width="4.44140625" style="4" customWidth="1"/>
-    <col min="6402" max="6402" width="21.33203125" style="4" customWidth="1"/>
-    <col min="6403" max="6403" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6404" max="6404" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6405" max="6406" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6407" max="6407" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6408" max="6408" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6409" max="6410" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6411" max="6411" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6412" max="6412" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6413" max="6414" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6415" max="6415" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6416" max="6416" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6417" max="6418" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6419" max="6419" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6420" max="6420" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6421" max="6422" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6423" max="6423" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6424" max="6424" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6425" max="6426" width="10.6640625" style="4" customWidth="1"/>
+    <col min="6172" max="6400" width="8.85546875" style="4"/>
+    <col min="6401" max="6401" width="4.42578125" style="4" customWidth="1"/>
+    <col min="6402" max="6402" width="21.28515625" style="4" customWidth="1"/>
+    <col min="6403" max="6403" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6405" max="6406" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6407" max="6407" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6408" max="6408" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6409" max="6410" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6411" max="6411" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6412" max="6412" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6413" max="6414" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6415" max="6415" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6416" max="6416" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6417" max="6418" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6419" max="6419" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6420" max="6420" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6421" max="6422" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6423" max="6423" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6424" max="6424" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6425" max="6426" width="10.7109375" style="4" customWidth="1"/>
     <col min="6427" max="6427" width="35" style="4" customWidth="1"/>
-    <col min="6428" max="6656" width="8.88671875" style="4"/>
-    <col min="6657" max="6657" width="4.44140625" style="4" customWidth="1"/>
-    <col min="6658" max="6658" width="21.33203125" style="4" customWidth="1"/>
-    <col min="6659" max="6659" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6660" max="6660" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6661" max="6662" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6663" max="6663" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6664" max="6664" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6665" max="6666" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6667" max="6667" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6668" max="6668" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6669" max="6670" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6671" max="6671" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6672" max="6672" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6673" max="6674" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6675" max="6675" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6676" max="6676" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6677" max="6678" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6679" max="6679" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6680" max="6680" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6681" max="6682" width="10.6640625" style="4" customWidth="1"/>
+    <col min="6428" max="6656" width="8.85546875" style="4"/>
+    <col min="6657" max="6657" width="4.42578125" style="4" customWidth="1"/>
+    <col min="6658" max="6658" width="21.28515625" style="4" customWidth="1"/>
+    <col min="6659" max="6659" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6661" max="6662" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6663" max="6663" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6664" max="6664" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6665" max="6666" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6667" max="6667" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6668" max="6668" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6669" max="6670" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6671" max="6671" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6672" max="6672" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6673" max="6674" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6675" max="6675" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6676" max="6676" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6677" max="6678" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6679" max="6679" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6680" max="6680" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6681" max="6682" width="10.7109375" style="4" customWidth="1"/>
     <col min="6683" max="6683" width="35" style="4" customWidth="1"/>
-    <col min="6684" max="6912" width="8.88671875" style="4"/>
-    <col min="6913" max="6913" width="4.44140625" style="4" customWidth="1"/>
-    <col min="6914" max="6914" width="21.33203125" style="4" customWidth="1"/>
-    <col min="6915" max="6915" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6916" max="6916" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6917" max="6918" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6919" max="6919" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6920" max="6920" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6921" max="6922" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6923" max="6923" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6924" max="6924" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6925" max="6926" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6927" max="6927" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6928" max="6928" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6929" max="6930" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6931" max="6931" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6932" max="6932" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6933" max="6934" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6935" max="6935" width="45.6640625" style="4" customWidth="1"/>
-    <col min="6936" max="6936" width="30.6640625" style="4" customWidth="1"/>
-    <col min="6937" max="6938" width="10.6640625" style="4" customWidth="1"/>
+    <col min="6684" max="6912" width="8.85546875" style="4"/>
+    <col min="6913" max="6913" width="4.42578125" style="4" customWidth="1"/>
+    <col min="6914" max="6914" width="21.28515625" style="4" customWidth="1"/>
+    <col min="6915" max="6915" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6917" max="6918" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6919" max="6919" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6920" max="6920" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6921" max="6922" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6923" max="6923" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6924" max="6924" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6925" max="6926" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6927" max="6927" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6928" max="6928" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6929" max="6930" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6931" max="6931" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6932" max="6932" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6933" max="6934" width="10.7109375" style="4" customWidth="1"/>
+    <col min="6935" max="6935" width="45.7109375" style="4" customWidth="1"/>
+    <col min="6936" max="6936" width="30.7109375" style="4" customWidth="1"/>
+    <col min="6937" max="6938" width="10.7109375" style="4" customWidth="1"/>
     <col min="6939" max="6939" width="35" style="4" customWidth="1"/>
-    <col min="6940" max="7168" width="8.88671875" style="4"/>
-    <col min="7169" max="7169" width="4.44140625" style="4" customWidth="1"/>
-    <col min="7170" max="7170" width="21.33203125" style="4" customWidth="1"/>
-    <col min="7171" max="7171" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7172" max="7172" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7173" max="7174" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7175" max="7175" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7176" max="7176" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7177" max="7178" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7179" max="7179" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7180" max="7180" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7181" max="7182" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7183" max="7183" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7184" max="7184" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7185" max="7186" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7187" max="7187" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7188" max="7188" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7189" max="7190" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7191" max="7191" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7192" max="7192" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7193" max="7194" width="10.6640625" style="4" customWidth="1"/>
+    <col min="6940" max="7168" width="8.85546875" style="4"/>
+    <col min="7169" max="7169" width="4.42578125" style="4" customWidth="1"/>
+    <col min="7170" max="7170" width="21.28515625" style="4" customWidth="1"/>
+    <col min="7171" max="7171" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7173" max="7174" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7175" max="7175" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7176" max="7176" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7177" max="7178" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7179" max="7179" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7180" max="7180" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7181" max="7182" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7183" max="7183" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7184" max="7184" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7185" max="7186" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7187" max="7187" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7188" max="7188" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7189" max="7190" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7191" max="7191" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7192" max="7192" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7193" max="7194" width="10.7109375" style="4" customWidth="1"/>
     <col min="7195" max="7195" width="35" style="4" customWidth="1"/>
-    <col min="7196" max="7424" width="8.88671875" style="4"/>
-    <col min="7425" max="7425" width="4.44140625" style="4" customWidth="1"/>
-    <col min="7426" max="7426" width="21.33203125" style="4" customWidth="1"/>
-    <col min="7427" max="7427" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7428" max="7428" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7429" max="7430" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7431" max="7431" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7432" max="7432" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7433" max="7434" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7435" max="7435" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7436" max="7436" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7437" max="7438" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7439" max="7439" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7440" max="7440" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7441" max="7442" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7443" max="7443" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7444" max="7444" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7445" max="7446" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7447" max="7447" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7448" max="7448" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7449" max="7450" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7196" max="7424" width="8.85546875" style="4"/>
+    <col min="7425" max="7425" width="4.42578125" style="4" customWidth="1"/>
+    <col min="7426" max="7426" width="21.28515625" style="4" customWidth="1"/>
+    <col min="7427" max="7427" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7429" max="7430" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7431" max="7431" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7432" max="7432" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7433" max="7434" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7435" max="7435" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7436" max="7436" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7437" max="7438" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7439" max="7439" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7440" max="7440" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7441" max="7442" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7443" max="7443" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7444" max="7444" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7445" max="7446" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7447" max="7447" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7448" max="7448" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7449" max="7450" width="10.7109375" style="4" customWidth="1"/>
     <col min="7451" max="7451" width="35" style="4" customWidth="1"/>
-    <col min="7452" max="7680" width="8.88671875" style="4"/>
-    <col min="7681" max="7681" width="4.44140625" style="4" customWidth="1"/>
-    <col min="7682" max="7682" width="21.33203125" style="4" customWidth="1"/>
-    <col min="7683" max="7683" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7684" max="7684" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7685" max="7686" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7687" max="7687" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7688" max="7688" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7689" max="7690" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7691" max="7691" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7692" max="7692" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7693" max="7694" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7695" max="7695" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7696" max="7696" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7697" max="7698" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7699" max="7699" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7700" max="7700" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7701" max="7702" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7703" max="7703" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7704" max="7704" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7705" max="7706" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7452" max="7680" width="8.85546875" style="4"/>
+    <col min="7681" max="7681" width="4.42578125" style="4" customWidth="1"/>
+    <col min="7682" max="7682" width="21.28515625" style="4" customWidth="1"/>
+    <col min="7683" max="7683" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7685" max="7686" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7687" max="7687" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7688" max="7688" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7689" max="7690" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7691" max="7691" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7692" max="7692" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7693" max="7694" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7695" max="7695" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7696" max="7696" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7697" max="7698" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7699" max="7699" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7700" max="7700" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7701" max="7702" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7703" max="7703" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7704" max="7704" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7705" max="7706" width="10.7109375" style="4" customWidth="1"/>
     <col min="7707" max="7707" width="35" style="4" customWidth="1"/>
-    <col min="7708" max="7936" width="8.88671875" style="4"/>
-    <col min="7937" max="7937" width="4.44140625" style="4" customWidth="1"/>
-    <col min="7938" max="7938" width="21.33203125" style="4" customWidth="1"/>
-    <col min="7939" max="7939" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7940" max="7940" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7941" max="7942" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7943" max="7943" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7944" max="7944" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7945" max="7946" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7947" max="7947" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7948" max="7948" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7949" max="7950" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7951" max="7951" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7952" max="7952" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7953" max="7954" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7955" max="7955" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7956" max="7956" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7957" max="7958" width="10.6640625" style="4" customWidth="1"/>
-    <col min="7959" max="7959" width="45.6640625" style="4" customWidth="1"/>
-    <col min="7960" max="7960" width="30.6640625" style="4" customWidth="1"/>
-    <col min="7961" max="7962" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7708" max="7936" width="8.85546875" style="4"/>
+    <col min="7937" max="7937" width="4.42578125" style="4" customWidth="1"/>
+    <col min="7938" max="7938" width="21.28515625" style="4" customWidth="1"/>
+    <col min="7939" max="7939" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7941" max="7942" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7943" max="7943" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7944" max="7944" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7945" max="7946" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7947" max="7947" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7948" max="7948" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7949" max="7950" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7951" max="7951" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7952" max="7952" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7953" max="7954" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7955" max="7955" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7956" max="7956" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7957" max="7958" width="10.7109375" style="4" customWidth="1"/>
+    <col min="7959" max="7959" width="45.7109375" style="4" customWidth="1"/>
+    <col min="7960" max="7960" width="30.7109375" style="4" customWidth="1"/>
+    <col min="7961" max="7962" width="10.7109375" style="4" customWidth="1"/>
     <col min="7963" max="7963" width="35" style="4" customWidth="1"/>
-    <col min="7964" max="8192" width="8.88671875" style="4"/>
-    <col min="8193" max="8193" width="4.44140625" style="4" customWidth="1"/>
-    <col min="8194" max="8194" width="21.33203125" style="4" customWidth="1"/>
-    <col min="8195" max="8195" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8196" max="8196" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8197" max="8198" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8199" max="8199" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8200" max="8200" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8201" max="8202" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8203" max="8203" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8204" max="8204" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8205" max="8206" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8207" max="8207" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8208" max="8208" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8209" max="8210" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8211" max="8211" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8212" max="8212" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8213" max="8214" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8215" max="8215" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8216" max="8216" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8217" max="8218" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7964" max="8192" width="8.85546875" style="4"/>
+    <col min="8193" max="8193" width="4.42578125" style="4" customWidth="1"/>
+    <col min="8194" max="8194" width="21.28515625" style="4" customWidth="1"/>
+    <col min="8195" max="8195" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8197" max="8198" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8199" max="8199" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8200" max="8200" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8201" max="8202" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8203" max="8203" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8204" max="8204" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8205" max="8206" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8207" max="8207" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8208" max="8208" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8209" max="8210" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8211" max="8211" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8212" max="8212" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8213" max="8214" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8215" max="8215" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8216" max="8216" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8217" max="8218" width="10.7109375" style="4" customWidth="1"/>
     <col min="8219" max="8219" width="35" style="4" customWidth="1"/>
-    <col min="8220" max="8448" width="8.88671875" style="4"/>
-    <col min="8449" max="8449" width="4.44140625" style="4" customWidth="1"/>
-    <col min="8450" max="8450" width="21.33203125" style="4" customWidth="1"/>
-    <col min="8451" max="8451" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8452" max="8452" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8453" max="8454" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8455" max="8455" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8456" max="8456" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8457" max="8458" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8459" max="8459" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8460" max="8460" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8461" max="8462" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8463" max="8463" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8464" max="8464" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8465" max="8466" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8467" max="8467" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8468" max="8468" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8469" max="8470" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8471" max="8471" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8472" max="8472" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8473" max="8474" width="10.6640625" style="4" customWidth="1"/>
+    <col min="8220" max="8448" width="8.85546875" style="4"/>
+    <col min="8449" max="8449" width="4.42578125" style="4" customWidth="1"/>
+    <col min="8450" max="8450" width="21.28515625" style="4" customWidth="1"/>
+    <col min="8451" max="8451" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8453" max="8454" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8455" max="8455" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8456" max="8456" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8457" max="8458" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8459" max="8459" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8460" max="8460" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8461" max="8462" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8463" max="8463" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8464" max="8464" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8465" max="8466" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8467" max="8467" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8468" max="8468" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8469" max="8470" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8471" max="8471" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8472" max="8472" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8473" max="8474" width="10.7109375" style="4" customWidth="1"/>
     <col min="8475" max="8475" width="35" style="4" customWidth="1"/>
-    <col min="8476" max="8704" width="8.88671875" style="4"/>
-    <col min="8705" max="8705" width="4.44140625" style="4" customWidth="1"/>
-    <col min="8706" max="8706" width="21.33203125" style="4" customWidth="1"/>
-    <col min="8707" max="8707" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8708" max="8708" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8709" max="8710" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8711" max="8711" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8712" max="8712" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8713" max="8714" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8715" max="8715" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8716" max="8716" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8717" max="8718" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8719" max="8719" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8720" max="8720" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8721" max="8722" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8723" max="8723" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8724" max="8724" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8725" max="8726" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8727" max="8727" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8728" max="8728" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8729" max="8730" width="10.6640625" style="4" customWidth="1"/>
+    <col min="8476" max="8704" width="8.85546875" style="4"/>
+    <col min="8705" max="8705" width="4.42578125" style="4" customWidth="1"/>
+    <col min="8706" max="8706" width="21.28515625" style="4" customWidth="1"/>
+    <col min="8707" max="8707" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8709" max="8710" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8711" max="8711" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8712" max="8712" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8713" max="8714" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8715" max="8715" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8716" max="8716" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8717" max="8718" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8719" max="8719" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8720" max="8720" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8721" max="8722" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8723" max="8723" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8724" max="8724" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8725" max="8726" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8727" max="8727" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8728" max="8728" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8729" max="8730" width="10.7109375" style="4" customWidth="1"/>
     <col min="8731" max="8731" width="35" style="4" customWidth="1"/>
-    <col min="8732" max="8960" width="8.88671875" style="4"/>
-    <col min="8961" max="8961" width="4.44140625" style="4" customWidth="1"/>
-    <col min="8962" max="8962" width="21.33203125" style="4" customWidth="1"/>
-    <col min="8963" max="8963" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8964" max="8964" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8965" max="8966" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8967" max="8967" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8968" max="8968" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8969" max="8970" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8971" max="8971" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8972" max="8972" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8973" max="8974" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8975" max="8975" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8976" max="8976" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8977" max="8978" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8979" max="8979" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8980" max="8980" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8981" max="8982" width="10.6640625" style="4" customWidth="1"/>
-    <col min="8983" max="8983" width="45.6640625" style="4" customWidth="1"/>
-    <col min="8984" max="8984" width="30.6640625" style="4" customWidth="1"/>
-    <col min="8985" max="8986" width="10.6640625" style="4" customWidth="1"/>
+    <col min="8732" max="8960" width="8.85546875" style="4"/>
+    <col min="8961" max="8961" width="4.42578125" style="4" customWidth="1"/>
+    <col min="8962" max="8962" width="21.28515625" style="4" customWidth="1"/>
+    <col min="8963" max="8963" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8965" max="8966" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8967" max="8967" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8968" max="8968" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8969" max="8970" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8971" max="8971" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8972" max="8972" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8973" max="8974" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8975" max="8975" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8976" max="8976" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8977" max="8978" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8979" max="8979" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8980" max="8980" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8981" max="8982" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8983" max="8983" width="45.7109375" style="4" customWidth="1"/>
+    <col min="8984" max="8984" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8985" max="8986" width="10.7109375" style="4" customWidth="1"/>
     <col min="8987" max="8987" width="35" style="4" customWidth="1"/>
-    <col min="8988" max="9216" width="8.88671875" style="4"/>
-    <col min="9217" max="9217" width="4.44140625" style="4" customWidth="1"/>
-    <col min="9218" max="9218" width="21.33203125" style="4" customWidth="1"/>
-    <col min="9219" max="9219" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9220" max="9220" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9221" max="9222" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9223" max="9223" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9224" max="9224" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9225" max="9226" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9227" max="9227" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9228" max="9228" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9229" max="9230" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9231" max="9231" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9232" max="9232" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9233" max="9234" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9235" max="9235" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9236" max="9236" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9237" max="9238" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9239" max="9239" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9240" max="9240" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9241" max="9242" width="10.6640625" style="4" customWidth="1"/>
+    <col min="8988" max="9216" width="8.85546875" style="4"/>
+    <col min="9217" max="9217" width="4.42578125" style="4" customWidth="1"/>
+    <col min="9218" max="9218" width="21.28515625" style="4" customWidth="1"/>
+    <col min="9219" max="9219" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9221" max="9222" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9223" max="9223" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9224" max="9224" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9225" max="9226" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9227" max="9227" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9228" max="9228" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9229" max="9230" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9231" max="9231" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9232" max="9232" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9233" max="9234" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9235" max="9235" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9236" max="9236" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9237" max="9238" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9239" max="9239" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9240" max="9240" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9241" max="9242" width="10.7109375" style="4" customWidth="1"/>
     <col min="9243" max="9243" width="35" style="4" customWidth="1"/>
-    <col min="9244" max="9472" width="8.88671875" style="4"/>
-    <col min="9473" max="9473" width="4.44140625" style="4" customWidth="1"/>
-    <col min="9474" max="9474" width="21.33203125" style="4" customWidth="1"/>
-    <col min="9475" max="9475" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9476" max="9476" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9477" max="9478" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9479" max="9479" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9480" max="9480" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9481" max="9482" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9483" max="9483" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9484" max="9484" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9485" max="9486" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9487" max="9487" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9488" max="9488" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9489" max="9490" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9491" max="9491" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9492" max="9492" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9493" max="9494" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9495" max="9495" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9496" max="9496" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9497" max="9498" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9244" max="9472" width="8.85546875" style="4"/>
+    <col min="9473" max="9473" width="4.42578125" style="4" customWidth="1"/>
+    <col min="9474" max="9474" width="21.28515625" style="4" customWidth="1"/>
+    <col min="9475" max="9475" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9477" max="9478" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9479" max="9479" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9480" max="9480" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9481" max="9482" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9483" max="9483" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9484" max="9484" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9485" max="9486" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9487" max="9487" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9488" max="9488" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9489" max="9490" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9491" max="9491" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9492" max="9492" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9493" max="9494" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9495" max="9495" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9496" max="9496" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9497" max="9498" width="10.7109375" style="4" customWidth="1"/>
     <col min="9499" max="9499" width="35" style="4" customWidth="1"/>
-    <col min="9500" max="9728" width="8.88671875" style="4"/>
-    <col min="9729" max="9729" width="4.44140625" style="4" customWidth="1"/>
-    <col min="9730" max="9730" width="21.33203125" style="4" customWidth="1"/>
-    <col min="9731" max="9731" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9732" max="9732" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9733" max="9734" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9735" max="9735" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9736" max="9736" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9737" max="9738" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9739" max="9739" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9740" max="9740" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9741" max="9742" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9743" max="9743" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9744" max="9744" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9745" max="9746" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9747" max="9747" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9748" max="9748" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9749" max="9750" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9751" max="9751" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9752" max="9752" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9753" max="9754" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9500" max="9728" width="8.85546875" style="4"/>
+    <col min="9729" max="9729" width="4.42578125" style="4" customWidth="1"/>
+    <col min="9730" max="9730" width="21.28515625" style="4" customWidth="1"/>
+    <col min="9731" max="9731" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9733" max="9734" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9735" max="9735" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9736" max="9736" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9737" max="9738" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9739" max="9739" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9740" max="9740" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9741" max="9742" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9743" max="9743" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9744" max="9744" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9745" max="9746" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9747" max="9747" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9748" max="9748" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9749" max="9750" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9751" max="9751" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9752" max="9752" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9753" max="9754" width="10.7109375" style="4" customWidth="1"/>
     <col min="9755" max="9755" width="35" style="4" customWidth="1"/>
-    <col min="9756" max="9984" width="8.88671875" style="4"/>
-    <col min="9985" max="9985" width="4.44140625" style="4" customWidth="1"/>
-    <col min="9986" max="9986" width="21.33203125" style="4" customWidth="1"/>
-    <col min="9987" max="9987" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9988" max="9988" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9989" max="9990" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9991" max="9991" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9992" max="9992" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9993" max="9994" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9995" max="9995" width="45.6640625" style="4" customWidth="1"/>
-    <col min="9996" max="9996" width="30.6640625" style="4" customWidth="1"/>
-    <col min="9997" max="9998" width="10.6640625" style="4" customWidth="1"/>
-    <col min="9999" max="9999" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10000" max="10000" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10001" max="10002" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10003" max="10003" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10004" max="10004" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10005" max="10006" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10007" max="10007" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10008" max="10008" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10009" max="10010" width="10.6640625" style="4" customWidth="1"/>
+    <col min="9756" max="9984" width="8.85546875" style="4"/>
+    <col min="9985" max="9985" width="4.42578125" style="4" customWidth="1"/>
+    <col min="9986" max="9986" width="21.28515625" style="4" customWidth="1"/>
+    <col min="9987" max="9987" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9989" max="9990" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9991" max="9991" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9992" max="9992" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9993" max="9994" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9995" max="9995" width="45.7109375" style="4" customWidth="1"/>
+    <col min="9996" max="9996" width="30.7109375" style="4" customWidth="1"/>
+    <col min="9997" max="9998" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9999" max="9999" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10000" max="10000" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10001" max="10002" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10003" max="10003" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10004" max="10004" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10005" max="10006" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10007" max="10007" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10008" max="10008" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10009" max="10010" width="10.7109375" style="4" customWidth="1"/>
     <col min="10011" max="10011" width="35" style="4" customWidth="1"/>
-    <col min="10012" max="10240" width="8.88671875" style="4"/>
-    <col min="10241" max="10241" width="4.44140625" style="4" customWidth="1"/>
-    <col min="10242" max="10242" width="21.33203125" style="4" customWidth="1"/>
-    <col min="10243" max="10243" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10244" max="10244" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10245" max="10246" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10247" max="10247" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10248" max="10248" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10249" max="10250" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10251" max="10251" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10252" max="10252" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10253" max="10254" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10255" max="10255" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10256" max="10256" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10257" max="10258" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10259" max="10259" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10260" max="10260" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10261" max="10262" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10263" max="10263" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10264" max="10264" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10265" max="10266" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10012" max="10240" width="8.85546875" style="4"/>
+    <col min="10241" max="10241" width="4.42578125" style="4" customWidth="1"/>
+    <col min="10242" max="10242" width="21.28515625" style="4" customWidth="1"/>
+    <col min="10243" max="10243" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10245" max="10246" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10247" max="10247" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10248" max="10248" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10249" max="10250" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10251" max="10251" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10252" max="10252" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10253" max="10254" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10255" max="10255" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10256" max="10256" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10257" max="10258" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10259" max="10259" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10260" max="10260" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10261" max="10262" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10263" max="10263" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10264" max="10264" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10265" max="10266" width="10.7109375" style="4" customWidth="1"/>
     <col min="10267" max="10267" width="35" style="4" customWidth="1"/>
-    <col min="10268" max="10496" width="8.88671875" style="4"/>
-    <col min="10497" max="10497" width="4.44140625" style="4" customWidth="1"/>
-    <col min="10498" max="10498" width="21.33203125" style="4" customWidth="1"/>
-    <col min="10499" max="10499" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10500" max="10500" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10501" max="10502" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10503" max="10503" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10504" max="10504" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10505" max="10506" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10507" max="10507" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10508" max="10508" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10509" max="10510" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10511" max="10511" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10512" max="10512" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10513" max="10514" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10515" max="10515" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10516" max="10516" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10517" max="10518" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10519" max="10519" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10520" max="10520" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10521" max="10522" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10268" max="10496" width="8.85546875" style="4"/>
+    <col min="10497" max="10497" width="4.42578125" style="4" customWidth="1"/>
+    <col min="10498" max="10498" width="21.28515625" style="4" customWidth="1"/>
+    <col min="10499" max="10499" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10501" max="10502" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10503" max="10503" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10504" max="10504" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10505" max="10506" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10507" max="10507" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10508" max="10508" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10509" max="10510" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10511" max="10511" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10512" max="10512" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10513" max="10514" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10515" max="10515" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10516" max="10516" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10517" max="10518" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10519" max="10519" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10520" max="10520" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10521" max="10522" width="10.7109375" style="4" customWidth="1"/>
     <col min="10523" max="10523" width="35" style="4" customWidth="1"/>
-    <col min="10524" max="10752" width="8.88671875" style="4"/>
-    <col min="10753" max="10753" width="4.44140625" style="4" customWidth="1"/>
-    <col min="10754" max="10754" width="21.33203125" style="4" customWidth="1"/>
-    <col min="10755" max="10755" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10756" max="10756" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10757" max="10758" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10759" max="10759" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10760" max="10760" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10761" max="10762" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10763" max="10763" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10764" max="10764" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10765" max="10766" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10767" max="10767" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10768" max="10768" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10769" max="10770" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10771" max="10771" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10772" max="10772" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10773" max="10774" width="10.6640625" style="4" customWidth="1"/>
-    <col min="10775" max="10775" width="45.6640625" style="4" customWidth="1"/>
-    <col min="10776" max="10776" width="30.6640625" style="4" customWidth="1"/>
-    <col min="10777" max="10778" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10524" max="10752" width="8.85546875" style="4"/>
+    <col min="10753" max="10753" width="4.42578125" style="4" customWidth="1"/>
+    <col min="10754" max="10754" width="21.28515625" style="4" customWidth="1"/>
+    <col min="10755" max="10755" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10757" max="10758" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10759" max="10759" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10760" max="10760" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10761" max="10762" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10763" max="10763" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10764" max="10764" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10765" max="10766" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10767" max="10767" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10768" max="10768" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10769" max="10770" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10771" max="10771" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10772" max="10772" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10773" max="10774" width="10.7109375" style="4" customWidth="1"/>
+    <col min="10775" max="10775" width="45.7109375" style="4" customWidth="1"/>
+    <col min="10776" max="10776" width="30.7109375" style="4" customWidth="1"/>
+    <col min="10777" max="10778" width="10.7109375" style="4" customWidth="1"/>
     <col min="10779" max="10779" width="35" style="4" customWidth="1"/>
-    <col min="10780" max="11008" width="8.88671875" style="4"/>
-    <col min="11009" max="11009" width="4.44140625" style="4" customWidth="1"/>
-    <col min="11010" max="11010" width="21.33203125" style="4" customWidth="1"/>
-    <col min="11011" max="11011" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11012" max="11012" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11013" max="11014" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11015" max="11015" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11016" max="11016" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11017" max="11018" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11019" max="11019" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11020" max="11020" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11021" max="11022" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11023" max="11023" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11024" max="11024" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11025" max="11026" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11027" max="11027" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11028" max="11028" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11029" max="11030" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11031" max="11031" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11032" max="11032" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11033" max="11034" width="10.6640625" style="4" customWidth="1"/>
+    <col min="10780" max="11008" width="8.85546875" style="4"/>
+    <col min="11009" max="11009" width="4.42578125" style="4" customWidth="1"/>
+    <col min="11010" max="11010" width="21.28515625" style="4" customWidth="1"/>
+    <col min="11011" max="11011" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11013" max="11014" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11015" max="11015" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11016" max="11016" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11017" max="11018" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11019" max="11019" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11020" max="11020" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11021" max="11022" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11023" max="11023" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11024" max="11024" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11025" max="11026" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11027" max="11027" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11028" max="11028" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11029" max="11030" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11031" max="11031" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11032" max="11032" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11033" max="11034" width="10.7109375" style="4" customWidth="1"/>
     <col min="11035" max="11035" width="35" style="4" customWidth="1"/>
-    <col min="11036" max="11264" width="8.88671875" style="4"/>
-    <col min="11265" max="11265" width="4.44140625" style="4" customWidth="1"/>
-    <col min="11266" max="11266" width="21.33203125" style="4" customWidth="1"/>
-    <col min="11267" max="11267" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11268" max="11268" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11269" max="11270" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11271" max="11271" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11272" max="11272" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11273" max="11274" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11275" max="11275" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11276" max="11276" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11277" max="11278" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11279" max="11279" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11280" max="11280" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11281" max="11282" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11283" max="11283" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11284" max="11284" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11285" max="11286" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11287" max="11287" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11288" max="11288" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11289" max="11290" width="10.6640625" style="4" customWidth="1"/>
+    <col min="11036" max="11264" width="8.85546875" style="4"/>
+    <col min="11265" max="11265" width="4.42578125" style="4" customWidth="1"/>
+    <col min="11266" max="11266" width="21.28515625" style="4" customWidth="1"/>
+    <col min="11267" max="11267" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11269" max="11270" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11271" max="11271" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11272" max="11272" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11273" max="11274" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11275" max="11275" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11276" max="11276" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11277" max="11278" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11279" max="11279" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11280" max="11280" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11281" max="11282" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11283" max="11283" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11284" max="11284" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11285" max="11286" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11287" max="11287" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11288" max="11288" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11289" max="11290" width="10.7109375" style="4" customWidth="1"/>
     <col min="11291" max="11291" width="35" style="4" customWidth="1"/>
-    <col min="11292" max="11520" width="8.88671875" style="4"/>
-    <col min="11521" max="11521" width="4.44140625" style="4" customWidth="1"/>
-    <col min="11522" max="11522" width="21.33203125" style="4" customWidth="1"/>
-    <col min="11523" max="11523" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11524" max="11524" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11525" max="11526" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11527" max="11527" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11528" max="11528" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11529" max="11530" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11531" max="11531" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11532" max="11532" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11533" max="11534" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11535" max="11535" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11536" max="11536" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11537" max="11538" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11539" max="11539" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11540" max="11540" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11541" max="11542" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11543" max="11543" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11544" max="11544" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11545" max="11546" width="10.6640625" style="4" customWidth="1"/>
+    <col min="11292" max="11520" width="8.85546875" style="4"/>
+    <col min="11521" max="11521" width="4.42578125" style="4" customWidth="1"/>
+    <col min="11522" max="11522" width="21.28515625" style="4" customWidth="1"/>
+    <col min="11523" max="11523" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11525" max="11526" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11527" max="11527" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11528" max="11528" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11529" max="11530" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11531" max="11531" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11532" max="11532" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11533" max="11534" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11535" max="11535" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11536" max="11536" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11537" max="11538" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11539" max="11539" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11540" max="11540" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11541" max="11542" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11543" max="11543" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11544" max="11544" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11545" max="11546" width="10.7109375" style="4" customWidth="1"/>
     <col min="11547" max="11547" width="35" style="4" customWidth="1"/>
-    <col min="11548" max="11776" width="8.88671875" style="4"/>
-    <col min="11777" max="11777" width="4.44140625" style="4" customWidth="1"/>
-    <col min="11778" max="11778" width="21.33203125" style="4" customWidth="1"/>
-    <col min="11779" max="11779" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11780" max="11780" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11781" max="11782" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11783" max="11783" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11784" max="11784" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11785" max="11786" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11787" max="11787" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11788" max="11788" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11789" max="11790" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11791" max="11791" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11792" max="11792" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11793" max="11794" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11795" max="11795" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11796" max="11796" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11797" max="11798" width="10.6640625" style="4" customWidth="1"/>
-    <col min="11799" max="11799" width="45.6640625" style="4" customWidth="1"/>
-    <col min="11800" max="11800" width="30.6640625" style="4" customWidth="1"/>
-    <col min="11801" max="11802" width="10.6640625" style="4" customWidth="1"/>
+    <col min="11548" max="11776" width="8.85546875" style="4"/>
+    <col min="11777" max="11777" width="4.42578125" style="4" customWidth="1"/>
+    <col min="11778" max="11778" width="21.28515625" style="4" customWidth="1"/>
+    <col min="11779" max="11779" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11781" max="11782" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11783" max="11783" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11784" max="11784" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11785" max="11786" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11787" max="11787" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11788" max="11788" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11789" max="11790" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11791" max="11791" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11792" max="11792" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11793" max="11794" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11795" max="11795" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11796" max="11796" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11797" max="11798" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11799" max="11799" width="45.7109375" style="4" customWidth="1"/>
+    <col min="11800" max="11800" width="30.7109375" style="4" customWidth="1"/>
+    <col min="11801" max="11802" width="10.7109375" style="4" customWidth="1"/>
     <col min="11803" max="11803" width="35" style="4" customWidth="1"/>
-    <col min="11804" max="12032" width="8.88671875" style="4"/>
-    <col min="12033" max="12033" width="4.44140625" style="4" customWidth="1"/>
-    <col min="12034" max="12034" width="21.33203125" style="4" customWidth="1"/>
-    <col min="12035" max="12035" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12036" max="12036" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12037" max="12038" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12039" max="12039" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12040" max="12040" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12041" max="12042" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12043" max="12043" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12044" max="12044" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12045" max="12046" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12047" max="12047" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12048" max="12048" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12049" max="12050" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12051" max="12051" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12052" max="12052" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12053" max="12054" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12055" max="12055" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12056" max="12056" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12057" max="12058" width="10.6640625" style="4" customWidth="1"/>
+    <col min="11804" max="12032" width="8.85546875" style="4"/>
+    <col min="12033" max="12033" width="4.42578125" style="4" customWidth="1"/>
+    <col min="12034" max="12034" width="21.28515625" style="4" customWidth="1"/>
+    <col min="12035" max="12035" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12037" max="12038" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12039" max="12039" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12040" max="12040" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12041" max="12042" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12043" max="12043" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12044" max="12044" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12045" max="12046" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12047" max="12047" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12048" max="12048" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12049" max="12050" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12051" max="12051" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12052" max="12052" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12053" max="12054" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12055" max="12055" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12056" max="12056" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12057" max="12058" width="10.7109375" style="4" customWidth="1"/>
     <col min="12059" max="12059" width="35" style="4" customWidth="1"/>
-    <col min="12060" max="12288" width="8.88671875" style="4"/>
-    <col min="12289" max="12289" width="4.44140625" style="4" customWidth="1"/>
-    <col min="12290" max="12290" width="21.33203125" style="4" customWidth="1"/>
-    <col min="12291" max="12291" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12292" max="12292" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12293" max="12294" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12295" max="12295" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12296" max="12296" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12297" max="12298" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12299" max="12299" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12300" max="12300" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12301" max="12302" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12303" max="12303" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12304" max="12304" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12305" max="12306" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12307" max="12307" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12308" max="12308" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12309" max="12310" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12311" max="12311" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12312" max="12312" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12313" max="12314" width="10.6640625" style="4" customWidth="1"/>
+    <col min="12060" max="12288" width="8.85546875" style="4"/>
+    <col min="12289" max="12289" width="4.42578125" style="4" customWidth="1"/>
+    <col min="12290" max="12290" width="21.28515625" style="4" customWidth="1"/>
+    <col min="12291" max="12291" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12293" max="12294" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12295" max="12295" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12296" max="12296" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12297" max="12298" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12299" max="12299" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12300" max="12300" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12301" max="12302" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12303" max="12303" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12304" max="12304" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12305" max="12306" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12307" max="12307" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12308" max="12308" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12309" max="12310" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12311" max="12311" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12312" max="12312" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12313" max="12314" width="10.7109375" style="4" customWidth="1"/>
     <col min="12315" max="12315" width="35" style="4" customWidth="1"/>
-    <col min="12316" max="12544" width="8.88671875" style="4"/>
-    <col min="12545" max="12545" width="4.44140625" style="4" customWidth="1"/>
-    <col min="12546" max="12546" width="21.33203125" style="4" customWidth="1"/>
-    <col min="12547" max="12547" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12548" max="12548" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12549" max="12550" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12551" max="12551" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12552" max="12552" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12553" max="12554" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12555" max="12555" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12556" max="12556" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12557" max="12558" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12559" max="12559" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12560" max="12560" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12561" max="12562" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12563" max="12563" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12564" max="12564" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12565" max="12566" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12567" max="12567" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12568" max="12568" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12569" max="12570" width="10.6640625" style="4" customWidth="1"/>
+    <col min="12316" max="12544" width="8.85546875" style="4"/>
+    <col min="12545" max="12545" width="4.42578125" style="4" customWidth="1"/>
+    <col min="12546" max="12546" width="21.28515625" style="4" customWidth="1"/>
+    <col min="12547" max="12547" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12549" max="12550" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12551" max="12551" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12552" max="12552" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12553" max="12554" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12555" max="12555" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12556" max="12556" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12557" max="12558" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12559" max="12559" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12560" max="12560" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12561" max="12562" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12563" max="12563" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12564" max="12564" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12565" max="12566" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12567" max="12567" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12568" max="12568" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12569" max="12570" width="10.7109375" style="4" customWidth="1"/>
     <col min="12571" max="12571" width="35" style="4" customWidth="1"/>
-    <col min="12572" max="12800" width="8.88671875" style="4"/>
-    <col min="12801" max="12801" width="4.44140625" style="4" customWidth="1"/>
-    <col min="12802" max="12802" width="21.33203125" style="4" customWidth="1"/>
-    <col min="12803" max="12803" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12804" max="12804" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12805" max="12806" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12807" max="12807" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12808" max="12808" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12809" max="12810" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12811" max="12811" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12812" max="12812" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12813" max="12814" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12815" max="12815" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12816" max="12816" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12817" max="12818" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12819" max="12819" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12820" max="12820" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12821" max="12822" width="10.6640625" style="4" customWidth="1"/>
-    <col min="12823" max="12823" width="45.6640625" style="4" customWidth="1"/>
-    <col min="12824" max="12824" width="30.6640625" style="4" customWidth="1"/>
-    <col min="12825" max="12826" width="10.6640625" style="4" customWidth="1"/>
+    <col min="12572" max="12800" width="8.85546875" style="4"/>
+    <col min="12801" max="12801" width="4.42578125" style="4" customWidth="1"/>
+    <col min="12802" max="12802" width="21.28515625" style="4" customWidth="1"/>
+    <col min="12803" max="12803" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12805" max="12806" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12807" max="12807" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12808" max="12808" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12809" max="12810" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12811" max="12811" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12812" max="12812" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12813" max="12814" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12815" max="12815" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12816" max="12816" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12817" max="12818" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12819" max="12819" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12820" max="12820" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12821" max="12822" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12823" max="12823" width="45.7109375" style="4" customWidth="1"/>
+    <col min="12824" max="12824" width="30.7109375" style="4" customWidth="1"/>
+    <col min="12825" max="12826" width="10.7109375" style="4" customWidth="1"/>
     <col min="12827" max="12827" width="35" style="4" customWidth="1"/>
-    <col min="12828" max="13056" width="8.88671875" style="4"/>
-    <col min="13057" max="13057" width="4.44140625" style="4" customWidth="1"/>
-    <col min="13058" max="13058" width="21.33203125" style="4" customWidth="1"/>
-    <col min="13059" max="13059" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13060" max="13060" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13061" max="13062" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13063" max="13063" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13064" max="13064" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13065" max="13066" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13067" max="13067" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13068" max="13068" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13069" max="13070" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13071" max="13071" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13072" max="13072" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13073" max="13074" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13075" max="13075" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13076" max="13076" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13077" max="13078" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13079" max="13079" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13080" max="13080" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13081" max="13082" width="10.6640625" style="4" customWidth="1"/>
+    <col min="12828" max="13056" width="8.85546875" style="4"/>
+    <col min="13057" max="13057" width="4.42578125" style="4" customWidth="1"/>
+    <col min="13058" max="13058" width="21.28515625" style="4" customWidth="1"/>
+    <col min="13059" max="13059" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13061" max="13062" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13063" max="13063" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13064" max="13064" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13065" max="13066" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13067" max="13067" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13068" max="13068" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13069" max="13070" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13071" max="13071" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13072" max="13072" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13073" max="13074" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13075" max="13075" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13076" max="13076" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13077" max="13078" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13079" max="13079" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13080" max="13080" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13081" max="13082" width="10.7109375" style="4" customWidth="1"/>
     <col min="13083" max="13083" width="35" style="4" customWidth="1"/>
-    <col min="13084" max="13312" width="8.88671875" style="4"/>
-    <col min="13313" max="13313" width="4.44140625" style="4" customWidth="1"/>
-    <col min="13314" max="13314" width="21.33203125" style="4" customWidth="1"/>
-    <col min="13315" max="13315" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13316" max="13316" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13317" max="13318" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13319" max="13319" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13320" max="13320" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13321" max="13322" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13323" max="13323" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13324" max="13324" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13325" max="13326" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13327" max="13327" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13328" max="13328" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13329" max="13330" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13331" max="13331" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13332" max="13332" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13333" max="13334" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13335" max="13335" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13336" max="13336" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13337" max="13338" width="10.6640625" style="4" customWidth="1"/>
+    <col min="13084" max="13312" width="8.85546875" style="4"/>
+    <col min="13313" max="13313" width="4.42578125" style="4" customWidth="1"/>
+    <col min="13314" max="13314" width="21.28515625" style="4" customWidth="1"/>
+    <col min="13315" max="13315" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13317" max="13318" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13319" max="13319" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13320" max="13320" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13321" max="13322" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13323" max="13323" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13324" max="13324" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13325" max="13326" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13327" max="13327" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13328" max="13328" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13329" max="13330" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13331" max="13331" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13332" max="13332" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13333" max="13334" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13335" max="13335" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13336" max="13336" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13337" max="13338" width="10.7109375" style="4" customWidth="1"/>
     <col min="13339" max="13339" width="35" style="4" customWidth="1"/>
-    <col min="13340" max="13568" width="8.88671875" style="4"/>
-    <col min="13569" max="13569" width="4.44140625" style="4" customWidth="1"/>
-    <col min="13570" max="13570" width="21.33203125" style="4" customWidth="1"/>
-    <col min="13571" max="13571" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13572" max="13572" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13573" max="13574" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13575" max="13575" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13576" max="13576" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13577" max="13578" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13579" max="13579" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13580" max="13580" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13581" max="13582" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13583" max="13583" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13584" max="13584" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13585" max="13586" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13587" max="13587" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13588" max="13588" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13589" max="13590" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13591" max="13591" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13592" max="13592" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13593" max="13594" width="10.6640625" style="4" customWidth="1"/>
+    <col min="13340" max="13568" width="8.85546875" style="4"/>
+    <col min="13569" max="13569" width="4.42578125" style="4" customWidth="1"/>
+    <col min="13570" max="13570" width="21.28515625" style="4" customWidth="1"/>
+    <col min="13571" max="13571" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13573" max="13574" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13575" max="13575" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13576" max="13576" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13577" max="13578" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13579" max="13579" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13580" max="13580" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13581" max="13582" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13583" max="13583" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13584" max="13584" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13585" max="13586" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13587" max="13587" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13588" max="13588" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13589" max="13590" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13591" max="13591" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13592" max="13592" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13593" max="13594" width="10.7109375" style="4" customWidth="1"/>
     <col min="13595" max="13595" width="35" style="4" customWidth="1"/>
-    <col min="13596" max="13824" width="8.88671875" style="4"/>
-    <col min="13825" max="13825" width="4.44140625" style="4" customWidth="1"/>
-    <col min="13826" max="13826" width="21.33203125" style="4" customWidth="1"/>
-    <col min="13827" max="13827" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13828" max="13828" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13829" max="13830" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13831" max="13831" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13832" max="13832" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13833" max="13834" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13835" max="13835" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13836" max="13836" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13837" max="13838" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13839" max="13839" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13840" max="13840" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13841" max="13842" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13843" max="13843" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13844" max="13844" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13845" max="13846" width="10.6640625" style="4" customWidth="1"/>
-    <col min="13847" max="13847" width="45.6640625" style="4" customWidth="1"/>
-    <col min="13848" max="13848" width="30.6640625" style="4" customWidth="1"/>
-    <col min="13849" max="13850" width="10.6640625" style="4" customWidth="1"/>
+    <col min="13596" max="13824" width="8.85546875" style="4"/>
+    <col min="13825" max="13825" width="4.42578125" style="4" customWidth="1"/>
+    <col min="13826" max="13826" width="21.28515625" style="4" customWidth="1"/>
+    <col min="13827" max="13827" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13829" max="13830" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13831" max="13831" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13832" max="13832" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13833" max="13834" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13835" max="13835" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13836" max="13836" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13837" max="13838" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13839" max="13839" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13840" max="13840" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13841" max="13842" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13843" max="13843" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13844" max="13844" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13845" max="13846" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13847" max="13847" width="45.7109375" style="4" customWidth="1"/>
+    <col min="13848" max="13848" width="30.7109375" style="4" customWidth="1"/>
+    <col min="13849" max="13850" width="10.7109375" style="4" customWidth="1"/>
     <col min="13851" max="13851" width="35" style="4" customWidth="1"/>
-    <col min="13852" max="14080" width="8.88671875" style="4"/>
-    <col min="14081" max="14081" width="4.44140625" style="4" customWidth="1"/>
-    <col min="14082" max="14082" width="21.33203125" style="4" customWidth="1"/>
-    <col min="14083" max="14083" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14084" max="14084" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14085" max="14086" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14087" max="14087" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14088" max="14088" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14089" max="14090" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14091" max="14091" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14092" max="14092" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14093" max="14094" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14095" max="14095" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14096" max="14096" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14097" max="14098" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14099" max="14099" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14100" max="14100" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14101" max="14102" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14103" max="14103" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14104" max="14104" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14105" max="14106" width="10.6640625" style="4" customWidth="1"/>
+    <col min="13852" max="14080" width="8.85546875" style="4"/>
+    <col min="14081" max="14081" width="4.42578125" style="4" customWidth="1"/>
+    <col min="14082" max="14082" width="21.28515625" style="4" customWidth="1"/>
+    <col min="14083" max="14083" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14085" max="14086" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14087" max="14087" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14088" max="14088" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14089" max="14090" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14091" max="14091" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14092" max="14092" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14093" max="14094" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14095" max="14095" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14096" max="14096" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14097" max="14098" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14099" max="14099" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14100" max="14100" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14101" max="14102" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14103" max="14103" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14104" max="14104" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14105" max="14106" width="10.7109375" style="4" customWidth="1"/>
     <col min="14107" max="14107" width="35" style="4" customWidth="1"/>
-    <col min="14108" max="14336" width="8.88671875" style="4"/>
-    <col min="14337" max="14337" width="4.44140625" style="4" customWidth="1"/>
-    <col min="14338" max="14338" width="21.33203125" style="4" customWidth="1"/>
-    <col min="14339" max="14339" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14340" max="14340" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14341" max="14342" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14343" max="14343" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14344" max="14344" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14345" max="14346" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14347" max="14347" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14348" max="14348" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14349" max="14350" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14351" max="14351" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14352" max="14352" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14353" max="14354" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14355" max="14355" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14356" max="14356" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14357" max="14358" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14359" max="14359" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14360" max="14360" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14361" max="14362" width="10.6640625" style="4" customWidth="1"/>
+    <col min="14108" max="14336" width="8.85546875" style="4"/>
+    <col min="14337" max="14337" width="4.42578125" style="4" customWidth="1"/>
+    <col min="14338" max="14338" width="21.28515625" style="4" customWidth="1"/>
+    <col min="14339" max="14339" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14341" max="14342" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14343" max="14343" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14344" max="14344" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14345" max="14346" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14347" max="14347" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14348" max="14348" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14349" max="14350" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14351" max="14351" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14352" max="14352" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14353" max="14354" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14355" max="14355" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14356" max="14356" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14357" max="14358" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14359" max="14359" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14360" max="14360" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14361" max="14362" width="10.7109375" style="4" customWidth="1"/>
     <col min="14363" max="14363" width="35" style="4" customWidth="1"/>
-    <col min="14364" max="14592" width="8.88671875" style="4"/>
-    <col min="14593" max="14593" width="4.44140625" style="4" customWidth="1"/>
-    <col min="14594" max="14594" width="21.33203125" style="4" customWidth="1"/>
-    <col min="14595" max="14595" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14596" max="14596" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14597" max="14598" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14599" max="14599" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14600" max="14600" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14601" max="14602" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14603" max="14603" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14604" max="14604" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14605" max="14606" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14607" max="14607" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14608" max="14608" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14609" max="14610" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14611" max="14611" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14612" max="14612" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14613" max="14614" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14615" max="14615" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14616" max="14616" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14617" max="14618" width="10.6640625" style="4" customWidth="1"/>
+    <col min="14364" max="14592" width="8.85546875" style="4"/>
+    <col min="14593" max="14593" width="4.42578125" style="4" customWidth="1"/>
+    <col min="14594" max="14594" width="21.28515625" style="4" customWidth="1"/>
+    <col min="14595" max="14595" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14597" max="14598" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14599" max="14599" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14600" max="14600" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14601" max="14602" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14603" max="14603" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14604" max="14604" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14605" max="14606" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14607" max="14607" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14608" max="14608" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14609" max="14610" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14611" max="14611" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14612" max="14612" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14613" max="14614" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14615" max="14615" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14616" max="14616" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14617" max="14618" width="10.7109375" style="4" customWidth="1"/>
     <col min="14619" max="14619" width="35" style="4" customWidth="1"/>
-    <col min="14620" max="14848" width="8.88671875" style="4"/>
-    <col min="14849" max="14849" width="4.44140625" style="4" customWidth="1"/>
-    <col min="14850" max="14850" width="21.33203125" style="4" customWidth="1"/>
-    <col min="14851" max="14851" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14852" max="14852" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14853" max="14854" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14855" max="14855" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14856" max="14856" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14857" max="14858" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14859" max="14859" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14860" max="14860" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14861" max="14862" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14863" max="14863" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14864" max="14864" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14865" max="14866" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14867" max="14867" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14868" max="14868" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14869" max="14870" width="10.6640625" style="4" customWidth="1"/>
-    <col min="14871" max="14871" width="45.6640625" style="4" customWidth="1"/>
-    <col min="14872" max="14872" width="30.6640625" style="4" customWidth="1"/>
-    <col min="14873" max="14874" width="10.6640625" style="4" customWidth="1"/>
+    <col min="14620" max="14848" width="8.85546875" style="4"/>
+    <col min="14849" max="14849" width="4.42578125" style="4" customWidth="1"/>
+    <col min="14850" max="14850" width="21.28515625" style="4" customWidth="1"/>
+    <col min="14851" max="14851" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14853" max="14854" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14855" max="14855" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14856" max="14856" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14857" max="14858" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14859" max="14859" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14860" max="14860" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14861" max="14862" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14863" max="14863" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14864" max="14864" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14865" max="14866" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14867" max="14867" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14868" max="14868" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14869" max="14870" width="10.7109375" style="4" customWidth="1"/>
+    <col min="14871" max="14871" width="45.7109375" style="4" customWidth="1"/>
+    <col min="14872" max="14872" width="30.7109375" style="4" customWidth="1"/>
+    <col min="14873" max="14874" width="10.7109375" style="4" customWidth="1"/>
     <col min="14875" max="14875" width="35" style="4" customWidth="1"/>
-    <col min="14876" max="15104" width="8.88671875" style="4"/>
-    <col min="15105" max="15105" width="4.44140625" style="4" customWidth="1"/>
-    <col min="15106" max="15106" width="21.33203125" style="4" customWidth="1"/>
-    <col min="15107" max="15107" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15108" max="15108" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15109" max="15110" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15111" max="15111" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15112" max="15112" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15113" max="15114" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15115" max="15115" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15116" max="15116" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15117" max="15118" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15119" max="15119" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15120" max="15120" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15121" max="15122" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15123" max="15123" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15124" max="15124" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15125" max="15126" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15127" max="15127" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15128" max="15128" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15129" max="15130" width="10.6640625" style="4" customWidth="1"/>
+    <col min="14876" max="15104" width="8.85546875" style="4"/>
+    <col min="15105" max="15105" width="4.42578125" style="4" customWidth="1"/>
+    <col min="15106" max="15106" width="21.28515625" style="4" customWidth="1"/>
+    <col min="15107" max="15107" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15109" max="15110" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15111" max="15111" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15112" max="15112" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15113" max="15114" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15115" max="15115" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15116" max="15116" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15117" max="15118" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15119" max="15119" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15120" max="15120" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15121" max="15122" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15123" max="15123" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15124" max="15124" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15125" max="15126" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15127" max="15127" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15128" max="15128" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15129" max="15130" width="10.7109375" style="4" customWidth="1"/>
     <col min="15131" max="15131" width="35" style="4" customWidth="1"/>
-    <col min="15132" max="15360" width="8.88671875" style="4"/>
-    <col min="15361" max="15361" width="4.44140625" style="4" customWidth="1"/>
-    <col min="15362" max="15362" width="21.33203125" style="4" customWidth="1"/>
-    <col min="15363" max="15363" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15364" max="15364" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15365" max="15366" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15367" max="15367" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15368" max="15368" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15369" max="15370" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15371" max="15371" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15372" max="15372" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15373" max="15374" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15375" max="15375" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15376" max="15376" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15377" max="15378" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15379" max="15379" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15380" max="15380" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15381" max="15382" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15383" max="15383" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15384" max="15384" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15385" max="15386" width="10.6640625" style="4" customWidth="1"/>
+    <col min="15132" max="15360" width="8.85546875" style="4"/>
+    <col min="15361" max="15361" width="4.42578125" style="4" customWidth="1"/>
+    <col min="15362" max="15362" width="21.28515625" style="4" customWidth="1"/>
+    <col min="15363" max="15363" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15365" max="15366" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15367" max="15367" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15368" max="15368" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15369" max="15370" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15371" max="15371" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15372" max="15372" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15373" max="15374" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15375" max="15375" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15376" max="15376" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15377" max="15378" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15379" max="15379" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15380" max="15380" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15381" max="15382" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15383" max="15383" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15384" max="15384" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15385" max="15386" width="10.7109375" style="4" customWidth="1"/>
     <col min="15387" max="15387" width="35" style="4" customWidth="1"/>
-    <col min="15388" max="15616" width="8.88671875" style="4"/>
-    <col min="15617" max="15617" width="4.44140625" style="4" customWidth="1"/>
-    <col min="15618" max="15618" width="21.33203125" style="4" customWidth="1"/>
-    <col min="15619" max="15619" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15620" max="15620" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15621" max="15622" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15623" max="15623" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15624" max="15624" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15625" max="15626" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15627" max="15627" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15628" max="15628" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15629" max="15630" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15631" max="15631" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15632" max="15632" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15633" max="15634" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15635" max="15635" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15636" max="15636" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15637" max="15638" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15639" max="15639" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15640" max="15640" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15641" max="15642" width="10.6640625" style="4" customWidth="1"/>
+    <col min="15388" max="15616" width="8.85546875" style="4"/>
+    <col min="15617" max="15617" width="4.42578125" style="4" customWidth="1"/>
+    <col min="15618" max="15618" width="21.28515625" style="4" customWidth="1"/>
+    <col min="15619" max="15619" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15621" max="15622" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15623" max="15623" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15624" max="15624" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15625" max="15626" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15627" max="15627" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15628" max="15628" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15629" max="15630" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15631" max="15631" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15632" max="15632" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15633" max="15634" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15635" max="15635" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15636" max="15636" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15637" max="15638" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15639" max="15639" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15640" max="15640" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15641" max="15642" width="10.7109375" style="4" customWidth="1"/>
     <col min="15643" max="15643" width="35" style="4" customWidth="1"/>
-    <col min="15644" max="15872" width="8.88671875" style="4"/>
-    <col min="15873" max="15873" width="4.44140625" style="4" customWidth="1"/>
-    <col min="15874" max="15874" width="21.33203125" style="4" customWidth="1"/>
-    <col min="15875" max="15875" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15876" max="15876" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15877" max="15878" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15879" max="15879" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15880" max="15880" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15881" max="15882" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15883" max="15883" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15884" max="15884" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15885" max="15886" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15887" max="15887" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15888" max="15888" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15889" max="15890" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15891" max="15891" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15892" max="15892" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15893" max="15894" width="10.6640625" style="4" customWidth="1"/>
-    <col min="15895" max="15895" width="45.6640625" style="4" customWidth="1"/>
-    <col min="15896" max="15896" width="30.6640625" style="4" customWidth="1"/>
-    <col min="15897" max="15898" width="10.6640625" style="4" customWidth="1"/>
+    <col min="15644" max="15872" width="8.85546875" style="4"/>
+    <col min="15873" max="15873" width="4.42578125" style="4" customWidth="1"/>
+    <col min="15874" max="15874" width="21.28515625" style="4" customWidth="1"/>
+    <col min="15875" max="15875" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15877" max="15878" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15879" max="15879" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15880" max="15880" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15881" max="15882" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15883" max="15883" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15884" max="15884" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15885" max="15886" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15887" max="15887" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15888" max="15888" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15889" max="15890" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15891" max="15891" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15892" max="15892" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15893" max="15894" width="10.7109375" style="4" customWidth="1"/>
+    <col min="15895" max="15895" width="45.7109375" style="4" customWidth="1"/>
+    <col min="15896" max="15896" width="30.7109375" style="4" customWidth="1"/>
+    <col min="15897" max="15898" width="10.7109375" style="4" customWidth="1"/>
     <col min="15899" max="15899" width="35" style="4" customWidth="1"/>
-    <col min="15900" max="16128" width="8.88671875" style="4"/>
-    <col min="16129" max="16129" width="4.44140625" style="4" customWidth="1"/>
-    <col min="16130" max="16130" width="21.33203125" style="4" customWidth="1"/>
-    <col min="16131" max="16131" width="45.6640625" style="4" customWidth="1"/>
-    <col min="16132" max="16132" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16133" max="16134" width="10.6640625" style="4" customWidth="1"/>
-    <col min="16135" max="16135" width="45.6640625" style="4" customWidth="1"/>
-    <col min="16136" max="16136" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16137" max="16138" width="10.6640625" style="4" customWidth="1"/>
-    <col min="16139" max="16139" width="45.6640625" style="4" customWidth="1"/>
-    <col min="16140" max="16140" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16141" max="16142" width="10.6640625" style="4" customWidth="1"/>
-    <col min="16143" max="16143" width="45.6640625" style="4" customWidth="1"/>
-    <col min="16144" max="16144" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16145" max="16146" width="10.6640625" style="4" customWidth="1"/>
-    <col min="16147" max="16147" width="45.6640625" style="4" customWidth="1"/>
-    <col min="16148" max="16148" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16149" max="16150" width="10.6640625" style="4" customWidth="1"/>
-    <col min="16151" max="16151" width="45.6640625" style="4" customWidth="1"/>
-    <col min="16152" max="16152" width="30.6640625" style="4" customWidth="1"/>
-    <col min="16153" max="16154" width="10.6640625" style="4" customWidth="1"/>
+    <col min="15900" max="16128" width="8.85546875" style="4"/>
+    <col min="16129" max="16129" width="4.42578125" style="4" customWidth="1"/>
+    <col min="16130" max="16130" width="21.28515625" style="4" customWidth="1"/>
+    <col min="16131" max="16131" width="45.7109375" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16133" max="16134" width="10.7109375" style="4" customWidth="1"/>
+    <col min="16135" max="16135" width="45.7109375" style="4" customWidth="1"/>
+    <col min="16136" max="16136" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16137" max="16138" width="10.7109375" style="4" customWidth="1"/>
+    <col min="16139" max="16139" width="45.7109375" style="4" customWidth="1"/>
+    <col min="16140" max="16140" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16141" max="16142" width="10.7109375" style="4" customWidth="1"/>
+    <col min="16143" max="16143" width="45.7109375" style="4" customWidth="1"/>
+    <col min="16144" max="16144" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16145" max="16146" width="10.7109375" style="4" customWidth="1"/>
+    <col min="16147" max="16147" width="45.7109375" style="4" customWidth="1"/>
+    <col min="16148" max="16148" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16149" max="16150" width="10.7109375" style="4" customWidth="1"/>
+    <col min="16151" max="16151" width="45.7109375" style="4" customWidth="1"/>
+    <col min="16152" max="16152" width="30.7109375" style="4" customWidth="1"/>
+    <col min="16153" max="16154" width="10.7109375" style="4" customWidth="1"/>
     <col min="16155" max="16155" width="35" style="4" customWidth="1"/>
-    <col min="16156" max="16378" width="8.88671875" style="4"/>
-    <col min="16379" max="16384" width="8.88671875" style="4" customWidth="1"/>
+    <col min="16156" max="16378" width="8.85546875" style="4"/>
+    <col min="16379" max="16384" width="8.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="212" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="179"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="100"/>
+    <row r="1" spans="1:28" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="209" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="99"/>
       <c r="AA1" s="50"/>
     </row>
-    <row r="2" spans="1:28" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="213" t="s">
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="162"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="211"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="V2" s="212"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
       <c r="AB2" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="31" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" s="31" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
-      <c r="B3" s="160"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="171" t="s">
+      <c r="E3" s="170" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="184"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="165"/>
+      <c r="G3" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="165" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="181" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="180" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="165" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="181" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="183" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="184" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3" s="173" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="179" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3" s="185" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" s="164" t="s">
+        <v>80</v>
+      </c>
       <c r="AA3" s="51"/>
       <c r="AB3" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="49" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="49" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="48">
         <v>20</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="85" t="s">
-        <v>46</v>
-      </c>
+      <c r="G4" s="168"/>
       <c r="H4" s="73"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="109"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="108"/>
       <c r="L4" s="73"/>
       <c r="M4" s="73"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="169"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="168"/>
       <c r="P4" s="73"/>
       <c r="Q4" s="73"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="109"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="108"/>
       <c r="T4" s="73"/>
       <c r="U4" s="73"/>
-      <c r="V4" s="188"/>
+      <c r="V4" s="187"/>
       <c r="W4" s="35"/>
       <c r="X4" s="36"/>
       <c r="Y4" s="34"/>
-      <c r="Z4" s="173"/>
+      <c r="Z4" s="172"/>
       <c r="AA4" s="51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB4" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="31" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="31" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>22</v>
       </c>
@@ -3544,235 +3614,223 @@
         <v>23</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="190"/>
+        <v>43</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="189"/>
       <c r="H5" s="74"/>
       <c r="I5" s="74"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="110"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="109"/>
       <c r="L5" s="74"/>
       <c r="M5" s="74"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="190"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="189"/>
       <c r="P5" s="74"/>
       <c r="Q5" s="74"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="110"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="109"/>
       <c r="T5" s="74"/>
       <c r="U5" s="74"/>
-      <c r="V5" s="99"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="43"/>
       <c r="X5" s="40"/>
       <c r="Y5" s="40"/>
-      <c r="Z5" s="102"/>
+      <c r="Z5" s="101"/>
       <c r="AA5" s="52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="209" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="206" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="127" t="s">
-        <v>50</v>
-      </c>
+      <c r="C6" s="126"/>
       <c r="D6" s="128"/>
-      <c r="E6" s="129" t="s">
-        <v>35</v>
-      </c>
+      <c r="E6" s="128"/>
       <c r="F6" s="130"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="151"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="152"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="151"/>
       <c r="AA6" s="85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="55" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="210"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="55" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="207"/>
       <c r="B7" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="105">
-        <v>430</v>
-      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="54"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="111"/>
+      <c r="J7" s="110"/>
       <c r="K7" s="54"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="111"/>
+      <c r="N7" s="110"/>
       <c r="O7" s="20"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="112"/>
+      <c r="R7" s="111"/>
       <c r="S7" s="14"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="96"/>
       <c r="W7" s="20"/>
       <c r="X7" s="22"/>
       <c r="Y7" s="22"/>
-      <c r="Z7" s="153"/>
+      <c r="Z7" s="152"/>
       <c r="AA7" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="210"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="207"/>
       <c r="B8" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="105">
-        <v>330</v>
-      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="118"/>
       <c r="G8" s="20"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="119"/>
+      <c r="J8" s="118"/>
       <c r="K8" s="20"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="112"/>
+      <c r="N8" s="111"/>
       <c r="O8" s="20"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="112"/>
+      <c r="R8" s="111"/>
       <c r="S8" s="14"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
-      <c r="W8" s="163"/>
+      <c r="W8" s="162"/>
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
-      <c r="Z8" s="112"/>
+      <c r="Z8" s="111"/>
       <c r="AA8" s="85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="210"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="207"/>
       <c r="B9" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="105">
-        <v>551</v>
+      <c r="D9" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="129">
+        <v>112</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="111"/>
+      <c r="J9" s="110"/>
       <c r="K9" s="54"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="111"/>
+      <c r="N9" s="110"/>
       <c r="O9" s="54"/>
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
-      <c r="R9" s="111"/>
+      <c r="R9" s="110"/>
       <c r="S9" s="17"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="96"/>
       <c r="W9" s="54"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="25"/>
-      <c r="Z9" s="153"/>
+      <c r="Z9" s="152"/>
       <c r="AA9" s="85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="210"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="207"/>
       <c r="B10" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="105"/>
+      <c r="C10" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="104">
+        <v>112</v>
+      </c>
       <c r="G10" s="80"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="95"/>
+      <c r="J10" s="94"/>
       <c r="K10" s="20"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="112"/>
+      <c r="N10" s="111"/>
       <c r="O10" s="20"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
@@ -3784,35 +3842,43 @@
       <c r="W10" s="54"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="95"/>
+      <c r="Z10" s="94"/>
       <c r="AA10" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="211"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="208"/>
       <c r="B11" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="66"/>
+      <c r="C11" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="104">
+        <v>112</v>
+      </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="118"/>
+      <c r="J11" s="117"/>
       <c r="K11" s="63"/>
       <c r="L11" s="64"/>
       <c r="M11" s="64"/>
-      <c r="N11" s="118"/>
+      <c r="N11" s="117"/>
       <c r="O11" s="60"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="94"/>
+      <c r="R11" s="93"/>
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
       <c r="U11" s="12"/>
@@ -3820,285 +3886,293 @@
       <c r="W11" s="16"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="94"/>
+      <c r="Z11" s="93"/>
       <c r="AA11" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="209" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="206" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="152"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="151"/>
       <c r="AA12" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="210"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="207"/>
       <c r="B13" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="92"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="20"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="112"/>
+      <c r="J13" s="111"/>
       <c r="K13" s="20"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="145"/>
+      <c r="N13" s="144"/>
       <c r="O13" s="20"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="92"/>
+      <c r="R13" s="91"/>
       <c r="S13" s="20"/>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="92"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="20"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="22"/>
       <c r="Z13" s="69"/>
       <c r="AA13" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="210"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="207"/>
       <c r="B14" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="112"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="20"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="112"/>
+      <c r="J14" s="111"/>
       <c r="K14" s="14"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="112"/>
+      <c r="N14" s="111"/>
       <c r="O14" s="20"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="112"/>
+      <c r="R14" s="111"/>
       <c r="S14" s="20"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="112"/>
+      <c r="V14" s="111"/>
       <c r="W14" s="20"/>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="69"/>
       <c r="AA14" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="210"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="207"/>
       <c r="B15" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="145"/>
+      <c r="C15" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="104">
+        <v>112</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="112"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="20"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
-      <c r="N15" s="145"/>
+      <c r="N15" s="144"/>
       <c r="O15" s="20"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
-      <c r="R15" s="114"/>
+      <c r="R15" s="113"/>
       <c r="S15" s="14"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
-      <c r="V15" s="145"/>
+      <c r="V15" s="144"/>
       <c r="W15" s="20"/>
       <c r="X15" s="22"/>
       <c r="Y15" s="24"/>
-      <c r="Z15" s="112"/>
+      <c r="Z15" s="111"/>
       <c r="AA15" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="210"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="207"/>
       <c r="B16" s="58" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="92"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="20"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="120"/>
+      <c r="J16" s="119"/>
       <c r="K16" s="14"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="91"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="90"/>
       <c r="P16" s="25"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="146"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="145"/>
       <c r="S16" s="17"/>
       <c r="T16" s="25"/>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
-      <c r="W16" s="154"/>
+      <c r="W16" s="153"/>
       <c r="X16" s="22"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="112"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="111"/>
       <c r="AA16" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="211"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="208"/>
       <c r="B17" s="59"/>
       <c r="C17" s="54"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="105"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="63"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="101"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="100"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
-      <c r="N17" s="103"/>
+      <c r="N17" s="102"/>
       <c r="O17" s="81"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="123"/>
       <c r="S17" s="70"/>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
-      <c r="V17" s="125"/>
+      <c r="V17" s="124"/>
       <c r="W17" s="16"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="94"/>
+      <c r="Z17" s="93"/>
       <c r="AA17" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="217" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="214" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="129"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="152"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="150"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="151"/>
       <c r="AA18" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="218"/>
-      <c r="B19" s="197" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="215"/>
+      <c r="B19" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
       <c r="G19" s="54"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="114"/>
+      <c r="J19" s="113"/>
       <c r="K19" s="54"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="114"/>
+      <c r="N19" s="113"/>
       <c r="O19" s="57"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
@@ -4110,107 +4184,107 @@
       <c r="W19" s="54"/>
       <c r="X19" s="22"/>
       <c r="Y19" s="22"/>
-      <c r="Z19" s="95"/>
+      <c r="Z19" s="94"/>
       <c r="AA19" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="218"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="215"/>
       <c r="B20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="133"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="136"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="136"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="168" t="s">
-        <v>46</v>
+      <c r="C20" s="154"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="169"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="167" t="s">
+        <v>48</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="218"/>
-      <c r="B21" s="201" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="215"/>
+      <c r="B21" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="196"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="202"/>
       <c r="G21" s="54"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="95"/>
+      <c r="J21" s="94"/>
       <c r="K21" s="54"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="95"/>
+      <c r="N21" s="94"/>
       <c r="O21" s="54"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="101"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="100"/>
       <c r="T21" s="25"/>
       <c r="U21" s="62"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="207"/>
-      <c r="X21" s="202"/>
-      <c r="Y21" s="202"/>
-      <c r="Z21" s="208"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="94"/>
       <c r="AA21" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="218"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="215"/>
       <c r="B22" s="58" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="108"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="54"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="112"/>
+      <c r="J22" s="111"/>
       <c r="K22" s="54"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="112"/>
+      <c r="N22" s="111"/>
       <c r="O22" s="20"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="114"/>
+      <c r="R22" s="113"/>
       <c r="S22" s="20"/>
       <c r="T22" s="25"/>
       <c r="U22" s="22"/>
@@ -4218,16 +4292,16 @@
       <c r="W22" s="54"/>
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
-      <c r="Z22" s="95"/>
+      <c r="Z22" s="94"/>
       <c r="AA22" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="219"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="216"/>
       <c r="B23" s="59" t="s">
         <v>37</v>
       </c>
@@ -4238,68 +4312,68 @@
       <c r="G23" s="63"/>
       <c r="H23" s="64"/>
       <c r="I23" s="64"/>
-      <c r="J23" s="118"/>
+      <c r="J23" s="117"/>
       <c r="K23" s="15"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="143"/>
+      <c r="N23" s="142"/>
       <c r="O23" s="16"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="94"/>
+      <c r="R23" s="93"/>
       <c r="S23" s="15"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
-      <c r="V23" s="94"/>
+      <c r="V23" s="93"/>
       <c r="W23" s="60"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="94"/>
+      <c r="Z23" s="93"/>
       <c r="AA23" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB23" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="126"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="125"/>
       <c r="B24" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="129"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="156"/>
-      <c r="Z24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="126"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="154"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="138"/>
       <c r="AA24" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="210" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="207" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="58" t="s">
@@ -4308,127 +4382,127 @@
       <c r="C25" s="20"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="148"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="147"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="148"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="112"/>
+      <c r="N25" s="111"/>
       <c r="O25" s="20"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
-      <c r="R25" s="112"/>
+      <c r="R25" s="111"/>
       <c r="S25" s="17"/>
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="22"/>
       <c r="W25" s="20"/>
-      <c r="X25" s="92"/>
+      <c r="X25" s="91"/>
       <c r="Y25" s="22"/>
-      <c r="Z25" s="95"/>
+      <c r="Z25" s="94"/>
       <c r="AA25" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB25" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="210"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="207"/>
       <c r="B26" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="92"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="20"/>
       <c r="H26" s="25"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="95"/>
+      <c r="J26" s="94"/>
       <c r="K26" s="20"/>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="112"/>
+      <c r="N26" s="111"/>
       <c r="O26" s="54"/>
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
-      <c r="R26" s="112"/>
+      <c r="R26" s="111"/>
       <c r="S26" s="20"/>
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="95"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="94"/>
       <c r="AA26" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB26" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="210"/>
-      <c r="B27" s="201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="207"/>
+      <c r="B27" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="206"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="205"/>
       <c r="G27" s="20"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="114"/>
+      <c r="J27" s="113"/>
       <c r="K27" s="20"/>
       <c r="L27" s="25"/>
       <c r="M27" s="22"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="196"/>
-      <c r="P27" s="202"/>
-      <c r="Q27" s="202"/>
-      <c r="R27" s="206"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="201"/>
+      <c r="Q27" s="201"/>
+      <c r="R27" s="205"/>
       <c r="S27" s="20"/>
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
-      <c r="V27" s="145"/>
+      <c r="V27" s="144"/>
       <c r="W27" s="54"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
-      <c r="Z27" s="112"/>
+      <c r="Z27" s="111"/>
       <c r="AA27" s="67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB27" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="210"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="207"/>
       <c r="B28" s="58" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="92"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="20"/>
       <c r="H28" s="25"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="112"/>
+      <c r="J28" s="111"/>
       <c r="K28" s="20"/>
       <c r="L28" s="25"/>
       <c r="M28" s="22"/>
-      <c r="N28" s="120"/>
+      <c r="N28" s="119"/>
       <c r="O28" s="54"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
-      <c r="R28" s="95"/>
+      <c r="R28" s="94"/>
       <c r="S28" s="17"/>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
@@ -4436,35 +4510,35 @@
       <c r="W28" s="20"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="22"/>
-      <c r="Z28" s="112"/>
+      <c r="Z28" s="111"/>
       <c r="AA28" s="67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" s="55" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="211"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" s="55" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="208"/>
       <c r="B29" s="59" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
-      <c r="F29" s="92"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="63"/>
       <c r="H29" s="11"/>
       <c r="I29" s="64"/>
-      <c r="J29" s="118"/>
+      <c r="J29" s="117"/>
       <c r="K29" s="63"/>
       <c r="L29" s="64"/>
       <c r="M29" s="64"/>
-      <c r="N29" s="149"/>
+      <c r="N29" s="148"/>
       <c r="O29" s="63"/>
       <c r="P29" s="64"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="94"/>
+      <c r="R29" s="93"/>
       <c r="S29" s="70"/>
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
@@ -4476,42 +4550,42 @@
       <c r="AA29" s="67"/>
       <c r="AB29" s="10"/>
     </row>
-    <row r="30" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="209" t="s">
+    <row r="30" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="206" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="129"/>
-      <c r="V30" s="129"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="152"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="127"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="127"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="127"/>
+      <c r="Y30" s="127"/>
+      <c r="Z30" s="151"/>
       <c r="AA30" s="67"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="216"/>
+    <row r="31" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="213"/>
       <c r="B31" s="68" t="s">
         <v>26</v>
       </c>
@@ -4519,14 +4593,14 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="65"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="201"/>
+      <c r="I31" s="201"/>
+      <c r="J31" s="194"/>
       <c r="K31" s="20"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="92"/>
+      <c r="N31" s="91"/>
       <c r="O31" s="57"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
@@ -4535,104 +4609,104 @@
       <c r="T31" s="24"/>
       <c r="U31" s="24"/>
       <c r="V31" s="65"/>
-      <c r="W31" s="163"/>
+      <c r="W31" s="162"/>
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
-      <c r="Z31" s="95"/>
+      <c r="Z31" s="94"/>
       <c r="AA31" s="67"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="77"/>
       <c r="AD31" s="77"/>
       <c r="AE31" s="77"/>
     </row>
-    <row r="32" spans="1:31" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="210"/>
+    <row r="32" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="207"/>
       <c r="B32" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="112"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="20"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="114"/>
+      <c r="J32" s="113"/>
       <c r="K32" s="54"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="107"/>
+      <c r="N32" s="106"/>
       <c r="O32" s="20"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
-      <c r="R32" s="112"/>
+      <c r="R32" s="111"/>
       <c r="S32" s="20"/>
       <c r="T32" s="22"/>
       <c r="U32" s="22"/>
-      <c r="V32" s="112"/>
+      <c r="V32" s="111"/>
       <c r="W32" s="54"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="22"/>
-      <c r="Z32" s="112"/>
+      <c r="Z32" s="111"/>
       <c r="AA32" s="67"/>
       <c r="AB32" s="77"/>
       <c r="AC32" s="77"/>
       <c r="AD32" s="77"/>
       <c r="AE32" s="77"/>
     </row>
-    <row r="33" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="210"/>
+    <row r="33" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="207"/>
       <c r="B33" s="58" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
-      <c r="F33" s="92"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="54"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="112"/>
+      <c r="J33" s="111"/>
       <c r="K33" s="54"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="92"/>
+      <c r="N33" s="91"/>
       <c r="O33" s="20"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
-      <c r="R33" s="112"/>
+      <c r="R33" s="111"/>
       <c r="S33" s="20"/>
       <c r="T33" s="22"/>
       <c r="U33" s="22"/>
-      <c r="V33" s="112"/>
+      <c r="V33" s="111"/>
       <c r="W33" s="57"/>
       <c r="X33" s="22"/>
       <c r="Y33" s="24"/>
-      <c r="Z33" s="112"/>
+      <c r="Z33" s="111"/>
       <c r="AA33" s="67"/>
       <c r="AB33" s="77"/>
     </row>
-    <row r="34" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="210"/>
+    <row r="34" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="207"/>
       <c r="B34" s="58" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
-      <c r="F34" s="92"/>
+      <c r="F34" s="91"/>
       <c r="G34" s="20"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="95"/>
+      <c r="J34" s="94"/>
       <c r="K34" s="14"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
-      <c r="N34" s="92"/>
+      <c r="N34" s="91"/>
       <c r="O34" s="54"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
-      <c r="R34" s="95"/>
+      <c r="R34" s="94"/>
       <c r="S34" s="14"/>
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
@@ -4640,12 +4714,12 @@
       <c r="W34" s="20"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="22"/>
-      <c r="Z34" s="112"/>
+      <c r="Z34" s="111"/>
       <c r="AA34" s="67"/>
       <c r="AB34" s="10"/>
     </row>
-    <row r="35" spans="1:28" s="55" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="211"/>
+    <row r="35" spans="1:28" s="55" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="208"/>
       <c r="B35" s="59" t="s">
         <v>37</v>
       </c>
@@ -4656,7 +4730,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="114"/>
+      <c r="J35" s="113"/>
       <c r="K35" s="15"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -4664,20 +4738,20 @@
       <c r="O35" s="63"/>
       <c r="P35" s="64"/>
       <c r="Q35" s="64"/>
-      <c r="R35" s="118"/>
+      <c r="R35" s="117"/>
       <c r="S35" s="54"/>
       <c r="T35" s="25"/>
       <c r="U35" s="25"/>
       <c r="V35" s="64"/>
       <c r="W35" s="57"/>
       <c r="X35" s="24"/>
-      <c r="Y35" s="157"/>
-      <c r="Z35" s="94"/>
+      <c r="Y35" s="156"/>
+      <c r="Z35" s="93"/>
       <c r="AA35" s="67"/>
       <c r="AB35" s="10"/>
     </row>
-    <row r="36" spans="1:28" s="55" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="209" t="s">
+    <row r="36" spans="1:28" s="55" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="206" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="53" t="s">
@@ -4686,19 +4760,19 @@
       <c r="C36" s="57"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
-      <c r="F36" s="106"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="23"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="116"/>
+      <c r="J36" s="115"/>
       <c r="K36" s="13"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
-      <c r="N36" s="106"/>
+      <c r="N36" s="105"/>
       <c r="O36" s="23"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="71"/>
-      <c r="R36" s="113"/>
+      <c r="R36" s="112"/>
       <c r="S36" s="13"/>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
@@ -4706,27 +4780,27 @@
       <c r="W36" s="23"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
-      <c r="Z36" s="116"/>
+      <c r="Z36" s="115"/>
       <c r="AA36" s="67"/>
       <c r="AB36" s="10"/>
     </row>
-    <row r="37" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="210"/>
+    <row r="37" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="207"/>
       <c r="B37" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
-      <c r="F37" s="92"/>
+      <c r="F37" s="91"/>
       <c r="G37" s="20"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
-      <c r="J37" s="112"/>
+      <c r="J37" s="111"/>
       <c r="K37" s="20"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
-      <c r="N37" s="92"/>
+      <c r="N37" s="91"/>
       <c r="O37" s="57"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="24"/>
@@ -4738,63 +4812,63 @@
       <c r="W37" s="20"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="22"/>
-      <c r="Z37" s="112"/>
+      <c r="Z37" s="111"/>
       <c r="AA37" s="67"/>
       <c r="AB37" s="10"/>
     </row>
-    <row r="38" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="210"/>
+    <row r="38" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="207"/>
       <c r="B38" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="86"/>
       <c r="D38" s="87"/>
       <c r="E38" s="88"/>
-      <c r="F38" s="104"/>
+      <c r="F38" s="103"/>
       <c r="G38" s="86"/>
       <c r="H38" s="87"/>
       <c r="I38" s="88"/>
-      <c r="J38" s="121"/>
+      <c r="J38" s="120"/>
       <c r="K38" s="86"/>
       <c r="L38" s="87"/>
       <c r="M38" s="88"/>
-      <c r="N38" s="104"/>
+      <c r="N38" s="103"/>
       <c r="O38" s="86"/>
       <c r="P38" s="87"/>
       <c r="Q38" s="88"/>
-      <c r="R38" s="117"/>
+      <c r="R38" s="116"/>
       <c r="S38" s="86"/>
       <c r="T38" s="87"/>
       <c r="U38" s="88"/>
       <c r="V38" s="88"/>
       <c r="W38" s="86"/>
-      <c r="X38" s="136"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="138"/>
+      <c r="X38" s="135"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="137"/>
       <c r="AA38" s="67"/>
       <c r="AB38" s="10"/>
     </row>
-    <row r="39" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="210"/>
+    <row r="39" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="207"/>
       <c r="B39" s="58" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="72"/>
       <c r="E39" s="22"/>
-      <c r="F39" s="92"/>
+      <c r="F39" s="91"/>
       <c r="G39" s="20"/>
       <c r="H39" s="72"/>
       <c r="I39" s="22"/>
-      <c r="J39" s="112"/>
+      <c r="J39" s="111"/>
       <c r="K39" s="14"/>
       <c r="L39" s="72"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="92"/>
+      <c r="N39" s="91"/>
       <c r="O39" s="20"/>
       <c r="P39" s="72"/>
       <c r="Q39" s="22"/>
-      <c r="R39" s="112"/>
+      <c r="R39" s="111"/>
       <c r="S39" s="20"/>
       <c r="T39" s="72"/>
       <c r="U39" s="22"/>
@@ -4802,12 +4876,12 @@
       <c r="W39" s="20"/>
       <c r="X39" s="56"/>
       <c r="Y39" s="22"/>
-      <c r="Z39" s="112"/>
+      <c r="Z39" s="111"/>
       <c r="AA39" s="67"/>
       <c r="AB39" s="10"/>
     </row>
-    <row r="40" spans="1:28" s="55" customFormat="1" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="211"/>
+    <row r="40" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="208"/>
       <c r="B40" s="59" t="s">
         <v>36</v>
       </c>
@@ -4818,7 +4892,7 @@
       <c r="G40" s="16"/>
       <c r="H40" s="18"/>
       <c r="I40" s="11"/>
-      <c r="J40" s="94"/>
+      <c r="J40" s="93"/>
       <c r="K40" s="15"/>
       <c r="L40" s="18"/>
       <c r="M40" s="11"/>
@@ -4826,7 +4900,7 @@
       <c r="O40" s="16"/>
       <c r="P40" s="18"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="94"/>
+      <c r="R40" s="93"/>
       <c r="S40" s="15"/>
       <c r="T40" s="18"/>
       <c r="U40" s="11"/>
@@ -4834,11 +4908,11 @@
       <c r="W40" s="16"/>
       <c r="X40" s="75"/>
       <c r="Y40" s="11"/>
-      <c r="Z40" s="94"/>
+      <c r="Z40" s="93"/>
       <c r="AA40" s="83"/>
       <c r="AB40" s="10"/>
     </row>
-    <row r="41" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>20</v>
       </c>
@@ -4846,7 +4920,7 @@
       <c r="C41" s="41"/>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="96"/>
+      <c r="F41" s="95"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="9"/>
@@ -4854,27 +4928,27 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="191"/>
+      <c r="N41" s="190"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="8"/>
-      <c r="R41" s="167"/>
+      <c r="R41" s="166"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="176"/>
+      <c r="V41" s="175"/>
       <c r="W41" s="31"/>
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
-      <c r="Z41" s="158"/>
+      <c r="Z41" s="157"/>
       <c r="AA41" s="84"/>
       <c r="AB41" s="10"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB42" s="46"/>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="192" t="s">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="191" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4895,7 +4969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor indexed="13"/>
   </sheetPr>
@@ -4903,107 +4977,107 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>

--- a/flask/static/пример.xlsx
+++ b/flask/static/пример.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Серега\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F341F-C2A6-4C02-968E-797452A4E919}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8994E-108E-4DE3-A6ED-A98250BA2F53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс_МО" sheetId="44" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -128,12 +128,6 @@
     <t>лек</t>
   </si>
   <si>
-    <t>лаб</t>
-  </si>
-  <si>
-    <t>пр</t>
-  </si>
-  <si>
     <t>15.50 -- 17.25</t>
   </si>
   <si>
@@ -149,33 +143,18 @@
     <t>Общее число обучающихся, чел.</t>
   </si>
   <si>
-    <t>Иностранный язык</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никитина Е.С.            </t>
-  </si>
-  <si>
     <t>вид уч. занятия</t>
   </si>
   <si>
     <t>Дисциплина</t>
   </si>
   <si>
-    <t>Акимов М.П.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Введение в сквозные цифровые технологии</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
     <t>**</t>
   </si>
   <si>
-    <t>СРС</t>
-  </si>
-  <si>
     <t>ауд</t>
   </si>
   <si>
@@ -281,13 +260,7 @@
     <t>1 курс</t>
   </si>
   <si>
-    <t>Аналитическая геометрия**</t>
-  </si>
-  <si>
     <t>Р   А   С   П   И   С   А   Н   И   Е       З    А    Н    Я    Т    И    Й       И М И           на 2 полугодие    2022-2023 уч.года</t>
-  </si>
-  <si>
-    <t>Акимов Ф.Р.</t>
   </si>
   <si>
     <t>Алексеев Н.К.</t>
@@ -1995,10 +1968,10 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -3422,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="209" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="209"/>
       <c r="C1" s="209"/>
@@ -3453,7 +3426,7 @@
     </row>
     <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="210" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B2" s="211"/>
       <c r="C2" s="211"/>
@@ -3488,96 +3461,86 @@
       <c r="A3" s="28"/>
       <c r="B3" s="159"/>
       <c r="C3" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="170" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F3" s="171" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>39</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G3" s="78"/>
       <c r="H3" s="79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="165" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J3" s="181" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="180" t="s">
-        <v>39</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K3" s="180"/>
       <c r="L3" s="79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M3" s="165" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N3" s="181" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="182" t="s">
-        <v>39</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="O3" s="182"/>
       <c r="P3" s="183" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="177" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="R3" s="184" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="173" t="s">
-        <v>39</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="S3" s="173"/>
       <c r="T3" s="174" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U3" s="179" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="V3" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>39</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="W3" s="29"/>
       <c r="X3" s="30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="163" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Z3" s="164" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AA3" s="51"/>
       <c r="AB3" s="19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="49" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="47" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" s="48">
         <v>20</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G4" s="168"/>
       <c r="H4" s="73"/>
@@ -3600,10 +3563,10 @@
       <c r="Y4" s="34"/>
       <c r="Z4" s="172"/>
       <c r="AA4" s="51" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="31" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3614,16 +3577,16 @@
         <v>23</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="97" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>50</v>
       </c>
       <c r="G5" s="189"/>
       <c r="H5" s="74"/>
@@ -3646,10 +3609,10 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="101"/>
       <c r="AA5" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="AB5" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3684,10 +3647,10 @@
       <c r="Y6" s="127"/>
       <c r="Z6" s="151"/>
       <c r="AA6" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="AB6" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="55" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3720,10 +3683,10 @@
       <c r="Y7" s="22"/>
       <c r="Z7" s="152"/>
       <c r="AA7" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3756,29 +3719,21 @@
       <c r="Y8" s="25"/>
       <c r="Z8" s="111"/>
       <c r="AA8" s="85" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="207"/>
       <c r="B9" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="128" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="129">
-        <v>112</v>
-      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
       <c r="G9" s="54"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -3800,29 +3755,21 @@
       <c r="Y9" s="25"/>
       <c r="Z9" s="152"/>
       <c r="AA9" s="85" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="207"/>
       <c r="B10" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="104">
-        <v>112</v>
-      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="80"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -3844,22 +3791,22 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="94"/>
       <c r="AA10" s="67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="208"/>
       <c r="B11" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>33</v>
@@ -3888,10 +3835,10 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="93"/>
       <c r="AA11" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3926,10 +3873,10 @@
       <c r="Y12" s="127"/>
       <c r="Z12" s="151"/>
       <c r="AA12" s="67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3962,10 +3909,10 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="69"/>
       <c r="AA13" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3998,10 +3945,10 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="69"/>
       <c r="AA14" s="67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4009,18 +3956,10 @@
       <c r="B15" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="104">
-        <v>112</v>
-      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="20"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -4042,16 +3981,16 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="111"/>
       <c r="AA15" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="207"/>
       <c r="B16" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="22"/>
@@ -4078,10 +4017,10 @@
       <c r="Y16" s="91"/>
       <c r="Z16" s="111"/>
       <c r="AA16" s="67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4112,10 +4051,10 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="93"/>
       <c r="AA17" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4150,10 +4089,10 @@
       <c r="Y18" s="127"/>
       <c r="Z18" s="151"/>
       <c r="AA18" s="67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4186,10 +4125,10 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="94"/>
       <c r="AA19" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4222,10 +4161,10 @@
       <c r="Y20" s="132"/>
       <c r="Z20" s="137"/>
       <c r="AA20" s="167" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4258,16 +4197,16 @@
       <c r="Y21" s="22"/>
       <c r="Z21" s="94"/>
       <c r="AA21" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="215"/>
       <c r="B22" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="22"/>
@@ -4294,16 +4233,16 @@
       <c r="Y22" s="25"/>
       <c r="Z22" s="94"/>
       <c r="AA22" s="67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="216"/>
       <c r="B23" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="11"/>
@@ -4330,10 +4269,10 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="93"/>
       <c r="AA23" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB23" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4366,15 +4305,15 @@
       <c r="Y24" s="155"/>
       <c r="Z24" s="138"/>
       <c r="AA24" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="207" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B25" s="58" t="s">
         <v>26</v>
@@ -4404,10 +4343,10 @@
       <c r="Y25" s="22"/>
       <c r="Z25" s="94"/>
       <c r="AA25" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB25" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4440,10 +4379,10 @@
       <c r="Y26" s="91"/>
       <c r="Z26" s="94"/>
       <c r="AA26" s="67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB26" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4476,16 +4415,16 @@
       <c r="Y27" s="22"/>
       <c r="Z27" s="111"/>
       <c r="AA27" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AB27" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="207"/>
       <c r="B28" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="22"/>
@@ -4512,16 +4451,16 @@
       <c r="Y28" s="22"/>
       <c r="Z28" s="111"/>
       <c r="AA28" s="67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="55" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="208"/>
       <c r="B29" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="22"/>
@@ -4689,7 +4628,7 @@
     <row r="34" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="207"/>
       <c r="B34" s="58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="22"/>
@@ -4721,7 +4660,7 @@
     <row r="35" spans="1:28" s="55" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="208"/>
       <c r="B35" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="11"/>
@@ -4883,7 +4822,7 @@
     <row r="40" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="208"/>
       <c r="B40" s="59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="18"/>

--- a/flask/static/пример.xlsx
+++ b/flask/static/пример.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Серега\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8994E-108E-4DE3-A6ED-A98250BA2F53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F194E3DE-CFC7-4E02-8D76-2C7082E34B8F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>лек</t>
-  </si>
-  <si>
     <t>15.50 -- 17.25</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>до</t>
   </si>
   <si>
-    <t xml:space="preserve"> Введение в сквозные цифровые технологии*</t>
-  </si>
-  <si>
     <t>четверг</t>
   </si>
   <si>
@@ -263,7 +257,14 @@
     <t>Р   А   С   П   И   С   А   Н   И   Е       З    А    Н    Я    Т    И    Й       И М И           на 2 полугодие    2022-2023 уч.года</t>
   </si>
   <si>
-    <t>Алексеев Н.К.</t>
+    <t>Никифоров Д.В.</t>
+  </si>
+  <si>
+    <t>лаб</t>
+  </si>
+  <si>
+    <t>Организация вычислительных систем* (1/2)
+Основы права **(1/2)</t>
   </si>
 </sst>
 </file>
@@ -1968,10 +1969,10 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -3395,7 +3396,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="209" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="209"/>
       <c r="C1" s="209"/>
@@ -3426,7 +3427,7 @@
     </row>
     <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="210" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="211"/>
       <c r="C2" s="211"/>
@@ -3461,86 +3462,86 @@
       <c r="A3" s="28"/>
       <c r="B3" s="159"/>
       <c r="C3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="171" t="s">
         <v>72</v>
-      </c>
-      <c r="F3" s="171" t="s">
-        <v>73</v>
       </c>
       <c r="G3" s="78"/>
       <c r="H3" s="79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="181" t="s">
         <v>72</v>
-      </c>
-      <c r="J3" s="181" t="s">
-        <v>73</v>
       </c>
       <c r="K3" s="180"/>
       <c r="L3" s="79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="181" t="s">
         <v>72</v>
-      </c>
-      <c r="N3" s="181" t="s">
-        <v>73</v>
       </c>
       <c r="O3" s="182"/>
       <c r="P3" s="183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="177" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="184" t="s">
         <v>72</v>
-      </c>
-      <c r="R3" s="184" t="s">
-        <v>73</v>
       </c>
       <c r="S3" s="173"/>
       <c r="T3" s="174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="179" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="185" t="s">
         <v>72</v>
-      </c>
-      <c r="V3" s="185" t="s">
-        <v>73</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="164" t="s">
         <v>72</v>
-      </c>
-      <c r="Z3" s="164" t="s">
-        <v>73</v>
       </c>
       <c r="AA3" s="51"/>
       <c r="AB3" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="49" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="48">
         <v>20</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="168"/>
       <c r="H4" s="73"/>
@@ -3563,10 +3564,10 @@
       <c r="Y4" s="34"/>
       <c r="Z4" s="172"/>
       <c r="AA4" s="51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="31" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3577,16 +3578,16 @@
         <v>23</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="189"/>
       <c r="H5" s="74"/>
@@ -3609,10 +3610,10 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="101"/>
       <c r="AA5" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB5" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3647,10 +3648,10 @@
       <c r="Y6" s="127"/>
       <c r="Z6" s="151"/>
       <c r="AA6" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="55" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3683,10 +3684,10 @@
       <c r="Y7" s="22"/>
       <c r="Z7" s="152"/>
       <c r="AA7" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3719,10 +3720,10 @@
       <c r="Y8" s="25"/>
       <c r="Z8" s="111"/>
       <c r="AA8" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3755,16 +3756,16 @@
       <c r="Y9" s="25"/>
       <c r="Z9" s="152"/>
       <c r="AA9" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="207"/>
       <c r="B10" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="127"/>
@@ -3791,28 +3792,28 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="94"/>
       <c r="AA10" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="208"/>
       <c r="B11" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="104">
-        <v>112</v>
+        <v>78</v>
+      </c>
+      <c r="F11" s="111">
+        <v>426</v>
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="64"/>
@@ -3835,10 +3836,10 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="93"/>
       <c r="AA11" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3873,10 +3874,10 @@
       <c r="Y12" s="127"/>
       <c r="Z12" s="151"/>
       <c r="AA12" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3909,10 +3910,10 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="69"/>
       <c r="AA13" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3945,10 +3946,10 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="69"/>
       <c r="AA14" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3981,16 +3982,16 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="111"/>
       <c r="AA15" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="207"/>
       <c r="B16" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="22"/>
@@ -4017,10 +4018,10 @@
       <c r="Y16" s="91"/>
       <c r="Z16" s="111"/>
       <c r="AA16" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4051,10 +4052,10 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="93"/>
       <c r="AA17" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4089,10 +4090,10 @@
       <c r="Y18" s="127"/>
       <c r="Z18" s="151"/>
       <c r="AA18" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4125,10 +4126,10 @@
       <c r="Y19" s="22"/>
       <c r="Z19" s="94"/>
       <c r="AA19" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4161,10 +4162,10 @@
       <c r="Y20" s="132"/>
       <c r="Z20" s="137"/>
       <c r="AA20" s="167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4197,16 +4198,16 @@
       <c r="Y21" s="22"/>
       <c r="Z21" s="94"/>
       <c r="AA21" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB21" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="215"/>
       <c r="B22" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="22"/>
@@ -4233,16 +4234,16 @@
       <c r="Y22" s="25"/>
       <c r="Z22" s="94"/>
       <c r="AA22" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="216"/>
       <c r="B23" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="11"/>
@@ -4269,10 +4270,10 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="93"/>
       <c r="AA23" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB23" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4305,15 +4306,15 @@
       <c r="Y24" s="155"/>
       <c r="Z24" s="138"/>
       <c r="AA24" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="207" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="58" t="s">
         <v>26</v>
@@ -4343,10 +4344,10 @@
       <c r="Y25" s="22"/>
       <c r="Z25" s="94"/>
       <c r="AA25" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB25" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4379,10 +4380,10 @@
       <c r="Y26" s="91"/>
       <c r="Z26" s="94"/>
       <c r="AA26" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4415,16 +4416,16 @@
       <c r="Y27" s="22"/>
       <c r="Z27" s="111"/>
       <c r="AA27" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB27" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:31" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="207"/>
       <c r="B28" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="22"/>
@@ -4451,16 +4452,16 @@
       <c r="Y28" s="22"/>
       <c r="Z28" s="111"/>
       <c r="AA28" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="55" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="208"/>
       <c r="B29" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="22"/>
@@ -4628,7 +4629,7 @@
     <row r="34" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="207"/>
       <c r="B34" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="22"/>
@@ -4660,7 +4661,7 @@
     <row r="35" spans="1:28" s="55" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="208"/>
       <c r="B35" s="59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="11"/>
@@ -4822,7 +4823,7 @@
     <row r="40" spans="1:28" s="55" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="208"/>
       <c r="B40" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="18"/>
